--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_18_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1382101.493257653</v>
+        <v>1311506.519583905</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6265684.674917417</v>
+        <v>6265684.674917416</v>
       </c>
     </row>
     <row r="8">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>133.6369314379061</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>133.6369314379062</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>133.6369314379062</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="T12" t="n">
-        <v>151.7222200702841</v>
+        <v>151.722220070284</v>
       </c>
       <c r="U12" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>133.6369314379061</v>
       </c>
       <c r="Y12" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.10571722614915</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>151.7222200702841</v>
+        <v>45.10571722614961</v>
       </c>
       <c r="T13" t="n">
-        <v>151.7222200702841</v>
+        <v>151.722220070284</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>133.6369314379061</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>133.6369314379062</v>
+        <v>151.722220070284</v>
       </c>
       <c r="G14" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.7222200702841</v>
+        <v>151.722220070284</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>133.6369314379061</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>133.6369314379062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>45.10571722614925</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>52.44739881532165</v>
       </c>
       <c r="R16" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>151.7222200702841</v>
+        <v>144.380538481112</v>
       </c>
       <c r="T16" t="n">
-        <v>151.7222200702841</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>161.567414785073</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>173.2424554993919</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>173.2424554993919</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>164.2669955181832</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>152.5919548038643</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>98.41876477587526</v>
       </c>
       <c r="H18" t="n">
-        <v>115.4492175196298</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>68.59220640745251</v>
       </c>
       <c r="S18" t="n">
-        <v>171.8076349053263</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>38.5775578783</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="U18" t="n">
-        <v>173.2424554993919</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>173.2424554993919</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>173.2424554993919</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>173.2424554993919</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>153.7874664382177</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>46.42689850693795</v>
       </c>
     </row>
     <row r="20">
@@ -2089,17 +2089,17 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>173.2424554993918</v>
+      </c>
+      <c r="F20" t="n">
+        <v>173.2424554993918</v>
+      </c>
+      <c r="G20" t="n">
+        <v>173.2424554993918</v>
+      </c>
+      <c r="H20" t="n">
         <v>152.5919548038643</v>
       </c>
-      <c r="F20" t="n">
-        <v>173.2424554993919</v>
-      </c>
-      <c r="G20" t="n">
-        <v>173.2424554993919</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>173.2424554993919</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="D21" t="n">
-        <v>154.0267753979298</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.8076349053263</v>
+        <v>166.6620952266774</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>173.2424554993919</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>173.2424554993919</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>14.03941333626588</v>
       </c>
       <c r="F22" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>14.86058421977094</v>
+        <v>167.807858350633</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.2424554993919</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="W22" t="n">
-        <v>173.2424554993919</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>173.3670970050748</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>173.3670970050748</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>173.3670970050748</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>69.83924570627391</v>
       </c>
       <c r="S23" t="n">
-        <v>173.3670970050748</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>82.8624933357959</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>173.3670970050748</v>
+        <v>82.86249333579596</v>
       </c>
       <c r="V23" t="n">
-        <v>173.3670970050748</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>70.69333292835036</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.8076349053263</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>173.3670970050748</v>
-      </c>
-      <c r="U24" t="n">
-        <v>83.56786821346792</v>
       </c>
       <c r="V24" t="n">
         <v>173.3670970050748</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>152.7017390420699</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>173.3670970050748</v>
       </c>
     </row>
     <row r="25">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.44739881532165</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>163.2811849059516</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>173.3670970050748</v>
       </c>
-      <c r="T25" t="n">
-        <v>111.1766967106535</v>
-      </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>173.3670970050748</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>14.6113012084053</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>152.7017390420698</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>91.96259482268744</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>173.3670970050748</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>173.3670970050748</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>164.2669955181832</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>69.83924570627391</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.3670970050748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,76 +2633,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>84.10953263461737</v>
+        <v>173.3670970050748</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>171.8076349053263</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>154.2612011418182</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>173.3670970050748</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>68.59220640745251</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>173.3670970050748</v>
-      </c>
-      <c r="U27" t="n">
-        <v>173.3670970050748</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,62 +2712,62 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>141.676141212225</v>
+      </c>
+      <c r="F28" t="n">
+        <v>138.9268822184467</v>
+      </c>
+      <c r="G28" t="n">
+        <v>46.30225700125509</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>173.3670970050748</v>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>173.3670970050748</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.538183426852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,67 +2794,67 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>173.3670970050748</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>152.7017390420698</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>173.3670970050748</v>
       </c>
-      <c r="I29" t="n">
-        <v>164.2669955181832</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>69.83924570627391</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>91.96259482268744</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>173.3670970050748</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>115.4492175196298</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>70.69333292835036</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>68.59220640745251</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.8076349053263</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
+        <v>72.89354129146041</v>
+      </c>
+      <c r="V30" t="n">
         <v>173.3670970050748</v>
       </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
       <c r="W30" t="n">
-        <v>173.3670970050748</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>152.7017390420699</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>173.3670970050748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>13.914771830583</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>17.4212808690687</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.807858350633</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>173.3670970050748</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>173.3670970050748</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>173.3670970050748</v>
       </c>
       <c r="H32" t="n">
-        <v>161.8018405289615</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>164.2669955181832</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>152.7017390420698</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>173.3670970050748</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>173.3670970050748</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>173.3670970050748</v>
       </c>
       <c r="U33" t="n">
         <v>173.3670970050748</v>
       </c>
       <c r="V33" t="n">
-        <v>173.3670970050748</v>
+        <v>152.7017390420699</v>
       </c>
       <c r="W33" t="n">
         <v>173.3670970050748</v>
       </c>
       <c r="X33" t="n">
-        <v>152.7017390420699</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>17.42128086906873</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.807858350633</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>173.3670970050748</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>173.3670970050748</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>153.538183426852</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5919548038641</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>173.2424554993918</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>173.2424554993918</v>
+        <v>82.75270909759034</v>
       </c>
       <c r="E35" t="n">
         <v>173.2424554993918</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>69.83924570627391</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.8076349053263</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>154.0267753979297</v>
+      </c>
+      <c r="X36" t="n">
         <v>173.2424554993918</v>
-      </c>
-      <c r="W36" t="n">
-        <v>173.2424554993918</v>
-      </c>
-      <c r="X36" t="n">
-        <v>152.5919548038642</v>
       </c>
       <c r="Y36" t="n">
         <v>173.2424554993918</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.44739881532166</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>101.3400676228961</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>42.92038946845228</v>
+      </c>
+      <c r="Y37" t="n">
         <v>173.2424554993918</v>
-      </c>
-      <c r="X37" t="n">
-        <v>173.2424554993918</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>69.83924570627391</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>82.75270909759034</v>
+      </c>
+      <c r="Y38" t="n">
         <v>173.2424554993918</v>
-      </c>
-      <c r="W38" t="n">
-        <v>173.2424554993918</v>
-      </c>
-      <c r="X38" t="n">
-        <v>173.2424554993918</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>152.5919548038642</v>
       </c>
     </row>
     <row r="39">
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>152.5919548038643</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>115.4492175196299</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>70.69333292835037</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>173.2424554993918</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>139.6918598552757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,76 +3660,76 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>173.2424554993918</v>
       </c>
-      <c r="C40" t="n">
-        <v>166.4571809719723</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>153.7874664382178</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>160.5727409656373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>151.7222200702839</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>151.7222200702839</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.636931437906</v>
+        <v>151.722220070284</v>
       </c>
       <c r="T41" t="n">
-        <v>151.7222200702839</v>
+        <v>151.722220070284</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>133.6369314379061</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>133.636931437906</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>151.7222200702839</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>115.4492175196298</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.18771391827623</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="W42" t="n">
-        <v>151.7222200702839</v>
+        <v>151.722220070284</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>151.7222200702839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>151.7222200702839</v>
+        <v>151.722220070284</v>
       </c>
       <c r="H43" t="n">
-        <v>151.7222200702839</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>57.90105507798681</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>45.10571722614949</v>
       </c>
     </row>
     <row r="44">
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="G44" t="n">
-        <v>151.7222200702839</v>
+        <v>151.722220070284</v>
       </c>
       <c r="H44" t="n">
-        <v>151.7222200702839</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.7222200702839</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>69.83924570627391</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>63.79768573163221</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>133.636931437906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>151.7222200702839</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>147.6795372579688</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4492175196299</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>133.6369314379061</v>
       </c>
       <c r="W45" t="n">
-        <v>151.7222200702839</v>
+        <v>151.722220070284</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>22.23039673059117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>151.7222200702839</v>
+        <v>45.10571722614949</v>
       </c>
       <c r="V46" t="n">
-        <v>151.7222200702839</v>
+        <v>151.722220070284</v>
       </c>
       <c r="W46" t="n">
-        <v>151.7222200702839</v>
+        <v>151.722220070284</v>
       </c>
       <c r="X46" t="n">
-        <v>45.10571722614961</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>151.722220070284</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>300.3793447856129</v>
+        <v>300.3793447856127</v>
       </c>
       <c r="C11" t="n">
-        <v>300.3793447856129</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="D11" t="n">
-        <v>300.3793447856129</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="E11" t="n">
-        <v>300.3793447856129</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="F11" t="n">
-        <v>300.3793447856129</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="G11" t="n">
-        <v>300.3793447856129</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="H11" t="n">
-        <v>147.1245770378512</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="I11" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="J11" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="K11" t="n">
-        <v>48.21230536046369</v>
+        <v>48.21230536046301</v>
       </c>
       <c r="L11" t="n">
-        <v>137.9860964349799</v>
+        <v>137.9860964349792</v>
       </c>
       <c r="M11" t="n">
-        <v>276.5134502448711</v>
+        <v>276.5134502448705</v>
       </c>
       <c r="N11" t="n">
-        <v>422.911167687472</v>
+        <v>422.9111676874714</v>
       </c>
       <c r="O11" t="n">
-        <v>544.8813621961159</v>
+        <v>544.8813621961153</v>
       </c>
       <c r="P11" t="n">
-        <v>606.8888802811365</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="Q11" t="n">
-        <v>606.8888802811365</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="R11" t="n">
-        <v>606.8888802811365</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="S11" t="n">
-        <v>453.6341125333747</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="T11" t="n">
-        <v>300.3793447856129</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="U11" t="n">
-        <v>300.3793447856129</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="V11" t="n">
-        <v>300.3793447856129</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="W11" t="n">
-        <v>300.3793447856129</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="X11" t="n">
-        <v>300.3793447856129</v>
+        <v>453.6341125333743</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.3793447856129</v>
+        <v>453.6341125333743</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.13777760562273</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="C12" t="n">
-        <v>12.13777760562273</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="D12" t="n">
-        <v>12.13777760562273</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="E12" t="n">
-        <v>12.13777760562273</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="F12" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="G12" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="H12" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="I12" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="J12" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="K12" t="n">
-        <v>50.70651353872127</v>
+        <v>50.70651353872125</v>
       </c>
       <c r="L12" t="n">
         <v>159.0804388877015</v>
       </c>
       <c r="M12" t="n">
-        <v>246.1087874650163</v>
+        <v>309.1630772723018</v>
       </c>
       <c r="N12" t="n">
-        <v>396.3137853345976</v>
+        <v>459.368075141883</v>
       </c>
       <c r="O12" t="n">
-        <v>526.2166887027402</v>
+        <v>526.2166887027396</v>
       </c>
       <c r="P12" t="n">
-        <v>606.8888802811365</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="Q12" t="n">
-        <v>606.8888802811365</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="R12" t="n">
-        <v>606.8888802811365</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="S12" t="n">
-        <v>606.8888802811365</v>
+        <v>453.6341125333743</v>
       </c>
       <c r="T12" t="n">
-        <v>453.6341125333747</v>
+        <v>300.3793447856127</v>
       </c>
       <c r="U12" t="n">
-        <v>300.3793447856129</v>
+        <v>300.3793447856127</v>
       </c>
       <c r="V12" t="n">
-        <v>300.3793447856129</v>
+        <v>300.3793447856127</v>
       </c>
       <c r="W12" t="n">
-        <v>300.3793447856129</v>
+        <v>300.3793447856127</v>
       </c>
       <c r="X12" t="n">
-        <v>300.3793447856129</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="Y12" t="n">
-        <v>147.1245770378512</v>
+        <v>165.3925453533843</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.13777760562273</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="C13" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="D13" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="E13" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="F13" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="G13" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="H13" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="I13" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="J13" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="K13" t="n">
-        <v>48.481361899089</v>
+        <v>48.48136189908899</v>
       </c>
       <c r="L13" t="n">
         <v>148.0758830449801</v>
@@ -5220,31 +5220,31 @@
         <v>517.4634113803718</v>
       </c>
       <c r="Q13" t="n">
-        <v>471.902080848908</v>
+        <v>517.4634113803718</v>
       </c>
       <c r="R13" t="n">
-        <v>318.6473131011462</v>
+        <v>517.4634113803718</v>
       </c>
       <c r="S13" t="n">
-        <v>165.3925453533845</v>
+        <v>471.9020808489075</v>
       </c>
       <c r="T13" t="n">
-        <v>12.13777760562273</v>
+        <v>318.6473131011459</v>
       </c>
       <c r="U13" t="n">
-        <v>12.13777760562273</v>
+        <v>318.6473131011459</v>
       </c>
       <c r="V13" t="n">
-        <v>12.13777760562273</v>
+        <v>318.6473131011459</v>
       </c>
       <c r="W13" t="n">
-        <v>12.13777760562273</v>
+        <v>318.6473131011459</v>
       </c>
       <c r="X13" t="n">
-        <v>12.13777760562273</v>
+        <v>318.6473131011459</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.13777760562273</v>
+        <v>318.6473131011459</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>606.8888802811364</v>
+        <v>453.6341125333743</v>
       </c>
       <c r="C14" t="n">
-        <v>606.8888802811364</v>
+        <v>318.6473131011459</v>
       </c>
       <c r="D14" t="n">
-        <v>606.8888802811364</v>
+        <v>318.6473131011459</v>
       </c>
       <c r="E14" t="n">
-        <v>606.8888802811364</v>
+        <v>318.6473131011459</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9020808489079</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="G14" t="n">
-        <v>318.6473131011462</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="H14" t="n">
-        <v>165.3925453533844</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="I14" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="J14" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="K14" t="n">
-        <v>48.21230536046323</v>
+        <v>48.21230536046354</v>
       </c>
       <c r="L14" t="n">
-        <v>137.9860964349794</v>
+        <v>137.9860964349797</v>
       </c>
       <c r="M14" t="n">
-        <v>276.5134502448707</v>
+        <v>276.513450244871</v>
       </c>
       <c r="N14" t="n">
-        <v>422.9111676874717</v>
+        <v>422.911167687472</v>
       </c>
       <c r="O14" t="n">
-        <v>544.8813621961158</v>
+        <v>544.8813621961159</v>
       </c>
       <c r="P14" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="Q14" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="R14" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="S14" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="T14" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="U14" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="V14" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="W14" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="X14" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="Y14" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.13777760562273</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="C15" t="n">
-        <v>12.13777760562273</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="D15" t="n">
-        <v>12.13777760562273</v>
+        <v>453.6341125333743</v>
       </c>
       <c r="E15" t="n">
-        <v>12.13777760562273</v>
+        <v>300.3793447856127</v>
       </c>
       <c r="F15" t="n">
-        <v>12.13777760562273</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="G15" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="H15" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="I15" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="J15" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="K15" t="n">
-        <v>12.13777760562273</v>
+        <v>50.70651353872125</v>
       </c>
       <c r="L15" t="n">
-        <v>96.02614908041579</v>
+        <v>159.0804388877015</v>
       </c>
       <c r="M15" t="n">
-        <v>246.1087874650161</v>
+        <v>246.1087874650159</v>
       </c>
       <c r="N15" t="n">
-        <v>396.3137853345974</v>
+        <v>396.313785334597</v>
       </c>
       <c r="O15" t="n">
-        <v>526.21668870274</v>
+        <v>526.2166887027396</v>
       </c>
       <c r="P15" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="Q15" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="R15" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="S15" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="T15" t="n">
-        <v>606.8888802811364</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="U15" t="n">
-        <v>453.6341125333747</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="V15" t="n">
-        <v>300.3793447856129</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="W15" t="n">
-        <v>300.3793447856129</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="X15" t="n">
-        <v>147.1245770378512</v>
+        <v>606.8888802811359</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.13777760562273</v>
+        <v>606.8888802811359</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.69910813708663</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="C16" t="n">
-        <v>57.69910813708663</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="D16" t="n">
-        <v>57.69910813708663</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="E16" t="n">
-        <v>57.69910813708663</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="F16" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="G16" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="H16" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="I16" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="J16" t="n">
-        <v>12.13777760562273</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="K16" t="n">
-        <v>48.48136189908903</v>
+        <v>48.48136189908899</v>
       </c>
       <c r="L16" t="n">
-        <v>148.0758830449802</v>
+        <v>148.0758830449801</v>
       </c>
       <c r="M16" t="n">
         <v>261.6802310603958</v>
@@ -5451,37 +5451,37 @@
         <v>380.5994578577709</v>
       </c>
       <c r="O16" t="n">
-        <v>468.4429650854883</v>
+        <v>468.4429650854882</v>
       </c>
       <c r="P16" t="n">
         <v>517.4634113803718</v>
       </c>
       <c r="Q16" t="n">
-        <v>517.4634113803718</v>
+        <v>464.4862408598449</v>
       </c>
       <c r="R16" t="n">
-        <v>364.2086436326101</v>
+        <v>464.4862408598449</v>
       </c>
       <c r="S16" t="n">
-        <v>210.9538758848483</v>
+        <v>318.6473131011459</v>
       </c>
       <c r="T16" t="n">
-        <v>57.69910813708663</v>
+        <v>318.6473131011459</v>
       </c>
       <c r="U16" t="n">
-        <v>57.69910813708663</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="V16" t="n">
-        <v>57.69910813708663</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="W16" t="n">
-        <v>57.69910813708663</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="X16" t="n">
-        <v>57.69910813708663</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.69910813708663</v>
+        <v>12.13777760562272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>692.9698219975675</v>
+        <v>188.8517757322663</v>
       </c>
       <c r="C17" t="n">
-        <v>692.9698219975675</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="D17" t="n">
-        <v>692.9698219975675</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="E17" t="n">
-        <v>692.9698219975675</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="F17" t="n">
-        <v>529.7704131237564</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="G17" t="n">
-        <v>354.7780338314413</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="H17" t="n">
-        <v>179.7856545391263</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="I17" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="J17" t="n">
-        <v>13.85939643995135</v>
+        <v>98.21871932205349</v>
       </c>
       <c r="K17" t="n">
-        <v>109.1809335750976</v>
+        <v>134.2932470768943</v>
       </c>
       <c r="L17" t="n">
-        <v>198.9547246496138</v>
+        <v>224.0670381514105</v>
       </c>
       <c r="M17" t="n">
-        <v>337.482078459505</v>
+        <v>362.5943919613018</v>
       </c>
       <c r="N17" t="n">
-        <v>508.992109403903</v>
+        <v>508.9921094039028</v>
       </c>
       <c r="O17" t="n">
-        <v>630.9623039125469</v>
+        <v>630.9623039125466</v>
       </c>
       <c r="P17" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="Q17" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="R17" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="S17" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="T17" t="n">
-        <v>692.9698219975675</v>
+        <v>517.9774427052523</v>
       </c>
       <c r="U17" t="n">
-        <v>692.9698219975675</v>
+        <v>342.9850634129373</v>
       </c>
       <c r="V17" t="n">
-        <v>692.9698219975675</v>
+        <v>188.8517757322663</v>
       </c>
       <c r="W17" t="n">
-        <v>692.9698219975675</v>
+        <v>188.8517757322663</v>
       </c>
       <c r="X17" t="n">
-        <v>692.9698219975675</v>
+        <v>188.8517757322663</v>
       </c>
       <c r="Y17" t="n">
-        <v>692.9698219975675</v>
+        <v>188.8517757322663</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>130.4747676719007</v>
+        <v>448.6923857280275</v>
       </c>
       <c r="C18" t="n">
-        <v>130.4747676719007</v>
+        <v>273.7000064357126</v>
       </c>
       <c r="D18" t="n">
-        <v>130.4747676719007</v>
+        <v>273.7000064357126</v>
       </c>
       <c r="E18" t="n">
-        <v>130.4747676719007</v>
+        <v>273.7000064357126</v>
       </c>
       <c r="F18" t="n">
-        <v>130.4747676719007</v>
+        <v>113.2722901529567</v>
       </c>
       <c r="G18" t="n">
-        <v>130.4747676719007</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="H18" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="I18" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="J18" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="K18" t="n">
-        <v>52.42813237304989</v>
+        <v>52.42813237304988</v>
       </c>
       <c r="L18" t="n">
-        <v>160.8020577220302</v>
+        <v>160.8020577220301</v>
       </c>
       <c r="M18" t="n">
-        <v>310.8846961066305</v>
+        <v>310.8846961066304</v>
       </c>
       <c r="N18" t="n">
-        <v>482.3947270510286</v>
+        <v>482.3947270510283</v>
       </c>
       <c r="O18" t="n">
-        <v>612.2976304191711</v>
+        <v>612.2976304191709</v>
       </c>
       <c r="P18" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="Q18" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="R18" t="n">
-        <v>692.9698219975675</v>
+        <v>623.6847650203425</v>
       </c>
       <c r="S18" t="n">
-        <v>519.4267564366318</v>
+        <v>623.6847650203425</v>
       </c>
       <c r="T18" t="n">
-        <v>480.4595262565308</v>
+        <v>448.6923857280275</v>
       </c>
       <c r="U18" t="n">
-        <v>305.4671469642157</v>
+        <v>448.6923857280275</v>
       </c>
       <c r="V18" t="n">
-        <v>130.4747676719007</v>
+        <v>448.6923857280275</v>
       </c>
       <c r="W18" t="n">
-        <v>130.4747676719007</v>
+        <v>448.6923857280275</v>
       </c>
       <c r="X18" t="n">
-        <v>130.4747676719007</v>
+        <v>448.6923857280275</v>
       </c>
       <c r="Y18" t="n">
-        <v>130.4747676719007</v>
+        <v>448.6923857280275</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.85939643995135</v>
+        <v>297.2967938446702</v>
       </c>
       <c r="C19" t="n">
-        <v>13.85939643995135</v>
+        <v>297.2967938446702</v>
       </c>
       <c r="D19" t="n">
-        <v>13.85939643995135</v>
+        <v>297.2967938446702</v>
       </c>
       <c r="E19" t="n">
-        <v>13.85939643995135</v>
+        <v>154.1895804989884</v>
       </c>
       <c r="F19" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="G19" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="H19" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="I19" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="J19" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="K19" t="n">
         <v>50.20298073341762</v>
@@ -5706,19 +5706,19 @@
         <v>519.1850302147003</v>
       </c>
       <c r="U19" t="n">
-        <v>344.1926509223853</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="V19" t="n">
-        <v>169.2002716300702</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="W19" t="n">
-        <v>13.85939643995135</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="X19" t="n">
-        <v>13.85939643995135</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.85939643995135</v>
+        <v>472.2891731369852</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>517.9774427052524</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="C20" t="n">
-        <v>517.9774427052524</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="D20" t="n">
-        <v>517.9774427052524</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="E20" t="n">
-        <v>363.8441550245814</v>
+        <v>517.9774427052523</v>
       </c>
       <c r="F20" t="n">
-        <v>188.8517757322664</v>
+        <v>342.9850634129373</v>
       </c>
       <c r="G20" t="n">
-        <v>13.85939643995135</v>
+        <v>167.9926841206224</v>
       </c>
       <c r="H20" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="I20" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="J20" t="n">
-        <v>98.21871932205372</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="K20" t="n">
-        <v>134.2932470768945</v>
+        <v>134.2932470768943</v>
       </c>
       <c r="L20" t="n">
-        <v>224.0670381514107</v>
+        <v>224.0670381514105</v>
       </c>
       <c r="M20" t="n">
-        <v>362.594391961302</v>
+        <v>362.5943919613018</v>
       </c>
       <c r="N20" t="n">
-        <v>508.992109403903</v>
+        <v>508.9921094039028</v>
       </c>
       <c r="O20" t="n">
-        <v>630.9623039125469</v>
+        <v>630.9623039125466</v>
       </c>
       <c r="P20" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="Q20" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="R20" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="S20" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="T20" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="U20" t="n">
-        <v>517.9774427052524</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="V20" t="n">
-        <v>517.9774427052524</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="W20" t="n">
-        <v>517.9774427052524</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="X20" t="n">
-        <v>517.9774427052524</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="Y20" t="n">
-        <v>517.9774427052524</v>
+        <v>692.9698219975672</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>169.4419978520017</v>
+        <v>349.6318919712346</v>
       </c>
       <c r="C21" t="n">
-        <v>169.4419978520017</v>
+        <v>174.6395126789196</v>
       </c>
       <c r="D21" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="E21" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="F21" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="G21" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="H21" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="I21" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="J21" t="n">
-        <v>13.85939643995135</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="K21" t="n">
         <v>52.42813237304989</v>
@@ -5840,43 +5840,43 @@
         <v>160.8020577220302</v>
       </c>
       <c r="M21" t="n">
-        <v>310.8846961066305</v>
+        <v>310.8846961066304</v>
       </c>
       <c r="N21" t="n">
-        <v>482.3947270510286</v>
+        <v>482.3947270510284</v>
       </c>
       <c r="O21" t="n">
-        <v>612.2976304191711</v>
+        <v>612.2976304191709</v>
       </c>
       <c r="P21" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="Q21" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="R21" t="n">
-        <v>692.9698219975675</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="S21" t="n">
-        <v>519.4267564366318</v>
+        <v>524.6242712635496</v>
       </c>
       <c r="T21" t="n">
-        <v>519.4267564366318</v>
+        <v>524.6242712635496</v>
       </c>
       <c r="U21" t="n">
-        <v>344.4343771443167</v>
+        <v>524.6242712635496</v>
       </c>
       <c r="V21" t="n">
-        <v>169.4419978520017</v>
+        <v>349.6318919712346</v>
       </c>
       <c r="W21" t="n">
-        <v>169.4419978520017</v>
+        <v>349.6318919712346</v>
       </c>
       <c r="X21" t="n">
-        <v>169.4419978520017</v>
+        <v>349.6318919712346</v>
       </c>
       <c r="Y21" t="n">
-        <v>169.4419978520017</v>
+        <v>349.6318919712346</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>342.9850634129374</v>
+        <v>344.1926509223853</v>
       </c>
       <c r="C22" t="n">
-        <v>342.9850634129374</v>
+        <v>344.1926509223853</v>
       </c>
       <c r="D22" t="n">
-        <v>342.9850634129374</v>
+        <v>197.5435092550008</v>
       </c>
       <c r="E22" t="n">
-        <v>342.9850634129374</v>
+        <v>183.362283662813</v>
       </c>
       <c r="F22" t="n">
-        <v>202.6548793539004</v>
+        <v>183.362283662813</v>
       </c>
       <c r="G22" t="n">
-        <v>187.6441882228186</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="H22" t="n">
-        <v>187.6441882228186</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="I22" t="n">
-        <v>187.6441882228186</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="J22" t="n">
-        <v>187.6441882228186</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="K22" t="n">
-        <v>223.9877725162849</v>
+        <v>50.20298073341762</v>
       </c>
       <c r="L22" t="n">
-        <v>323.582293662176</v>
+        <v>149.7975018793088</v>
       </c>
       <c r="M22" t="n">
-        <v>437.1866416775916</v>
+        <v>263.4018498947244</v>
       </c>
       <c r="N22" t="n">
-        <v>556.1058684749667</v>
+        <v>382.3210766920994</v>
       </c>
       <c r="O22" t="n">
-        <v>643.9493757026839</v>
+        <v>470.1645839198167</v>
       </c>
       <c r="P22" t="n">
-        <v>692.9698219975675</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="Q22" t="n">
-        <v>692.9698219975675</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="R22" t="n">
-        <v>692.9698219975675</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="S22" t="n">
-        <v>517.9774427052524</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="T22" t="n">
-        <v>517.9774427052524</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="U22" t="n">
-        <v>517.9774427052524</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="V22" t="n">
-        <v>517.9774427052524</v>
+        <v>344.1926509223853</v>
       </c>
       <c r="W22" t="n">
-        <v>342.9850634129374</v>
+        <v>344.1926509223853</v>
       </c>
       <c r="X22" t="n">
-        <v>342.9850634129374</v>
+        <v>344.1926509223853</v>
       </c>
       <c r="Y22" t="n">
-        <v>342.9850634129374</v>
+        <v>344.1926509223853</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.86936776040598</v>
+        <v>539.2242071697235</v>
       </c>
       <c r="C23" t="n">
-        <v>13.86936776040598</v>
+        <v>539.2242071697235</v>
       </c>
       <c r="D23" t="n">
-        <v>13.86936776040598</v>
+        <v>539.2242071697235</v>
       </c>
       <c r="E23" t="n">
-        <v>13.86936776040598</v>
+        <v>364.1059273666177</v>
       </c>
       <c r="F23" t="n">
-        <v>13.86936776040598</v>
+        <v>188.9876475635118</v>
       </c>
       <c r="G23" t="n">
         <v>13.86936776040598</v>
@@ -5995,10 +5995,10 @@
         <v>49.94389551524681</v>
       </c>
       <c r="L23" t="n">
-        <v>166.2238233565866</v>
+        <v>221.5773215502708</v>
       </c>
       <c r="M23" t="n">
-        <v>337.8572493916106</v>
+        <v>363.0929579840337</v>
       </c>
       <c r="N23" t="n">
         <v>509.4906754266347</v>
@@ -6016,25 +6016,25 @@
         <v>622.9236953876992</v>
       </c>
       <c r="S23" t="n">
-        <v>447.8054155845934</v>
+        <v>622.9236953876992</v>
       </c>
       <c r="T23" t="n">
-        <v>364.1059273666177</v>
+        <v>622.9236953876992</v>
       </c>
       <c r="U23" t="n">
-        <v>188.9876475635118</v>
+        <v>539.2242071697235</v>
       </c>
       <c r="V23" t="n">
-        <v>13.86936776040598</v>
+        <v>539.2242071697235</v>
       </c>
       <c r="W23" t="n">
-        <v>13.86936776040598</v>
+        <v>539.2242071697235</v>
       </c>
       <c r="X23" t="n">
-        <v>13.86936776040598</v>
+        <v>539.2242071697235</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.86936776040598</v>
+        <v>539.2242071697235</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85.27677475873968</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="C24" t="n">
-        <v>85.27677475873968</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="D24" t="n">
-        <v>85.27677475873968</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="E24" t="n">
-        <v>85.27677475873968</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="F24" t="n">
-        <v>85.27677475873968</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="G24" t="n">
-        <v>85.27677475873968</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="H24" t="n">
-        <v>85.27677475873968</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="I24" t="n">
         <v>13.86936776040598</v>
@@ -6071,10 +6071,10 @@
         <v>13.86936776040598</v>
       </c>
       <c r="K24" t="n">
-        <v>52.80330330515561</v>
+        <v>52.43810369350452</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1772286541359</v>
+        <v>160.8120290424848</v>
       </c>
       <c r="M24" t="n">
         <v>311.2598670387362</v>
@@ -6095,25 +6095,25 @@
         <v>693.4683880202991</v>
       </c>
       <c r="S24" t="n">
-        <v>519.9253224593634</v>
+        <v>693.4683880202991</v>
       </c>
       <c r="T24" t="n">
-        <v>344.8070426562576</v>
+        <v>693.4683880202991</v>
       </c>
       <c r="U24" t="n">
-        <v>260.3950545618455</v>
+        <v>518.3501082171933</v>
       </c>
       <c r="V24" t="n">
-        <v>85.27677475873968</v>
+        <v>343.2318284140875</v>
       </c>
       <c r="W24" t="n">
-        <v>85.27677475873968</v>
+        <v>188.9876475635118</v>
       </c>
       <c r="X24" t="n">
-        <v>85.27677475873968</v>
+        <v>188.9876475635118</v>
       </c>
       <c r="Y24" t="n">
-        <v>85.27677475873968</v>
+        <v>13.86936776040598</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.86936776040598</v>
+        <v>154.199551819443</v>
       </c>
       <c r="C25" t="n">
-        <v>13.86936776040598</v>
+        <v>154.199551819443</v>
       </c>
       <c r="D25" t="n">
-        <v>13.86936776040598</v>
+        <v>154.199551819443</v>
       </c>
       <c r="E25" t="n">
-        <v>13.86936776040598</v>
+        <v>154.199551819443</v>
       </c>
       <c r="F25" t="n">
         <v>13.86936776040598</v>
@@ -6168,31 +6168,31 @@
         <v>519.195001535155</v>
       </c>
       <c r="Q25" t="n">
-        <v>466.2178310146281</v>
+        <v>519.195001535155</v>
       </c>
       <c r="R25" t="n">
-        <v>301.2873412106366</v>
+        <v>519.195001535155</v>
       </c>
       <c r="S25" t="n">
-        <v>126.1690614075308</v>
+        <v>519.195001535155</v>
       </c>
       <c r="T25" t="n">
-        <v>13.86936776040598</v>
+        <v>344.0767217320492</v>
       </c>
       <c r="U25" t="n">
-        <v>13.86936776040598</v>
+        <v>344.0767217320492</v>
       </c>
       <c r="V25" t="n">
-        <v>13.86936776040598</v>
+        <v>168.9584419289433</v>
       </c>
       <c r="W25" t="n">
-        <v>13.86936776040598</v>
+        <v>154.199551819443</v>
       </c>
       <c r="X25" t="n">
-        <v>13.86936776040598</v>
+        <v>154.199551819443</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.86936776040598</v>
+        <v>154.199551819443</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>364.1059273666177</v>
+        <v>622.9236953876992</v>
       </c>
       <c r="C26" t="n">
-        <v>188.9876475635118</v>
+        <v>622.9236953876992</v>
       </c>
       <c r="D26" t="n">
-        <v>188.9876475635118</v>
+        <v>530.0321854657927</v>
       </c>
       <c r="E26" t="n">
-        <v>13.86936776040598</v>
+        <v>530.0321854657927</v>
       </c>
       <c r="F26" t="n">
-        <v>13.86936776040598</v>
+        <v>530.0321854657927</v>
       </c>
       <c r="G26" t="n">
-        <v>13.86936776040598</v>
+        <v>354.9139056626868</v>
       </c>
       <c r="H26" t="n">
-        <v>13.86936776040598</v>
+        <v>179.795625859581</v>
       </c>
       <c r="I26" t="n">
         <v>13.86936776040598</v>
@@ -6229,13 +6229,13 @@
         <v>13.86936776040598</v>
       </c>
       <c r="K26" t="n">
-        <v>109.5561045072031</v>
+        <v>49.94389551524681</v>
       </c>
       <c r="L26" t="n">
-        <v>199.3298955817193</v>
+        <v>191.4595319490096</v>
       </c>
       <c r="M26" t="n">
-        <v>337.8572493916106</v>
+        <v>363.0929579840337</v>
       </c>
       <c r="N26" t="n">
         <v>509.4906754266347</v>
@@ -6250,28 +6250,28 @@
         <v>693.4683880202991</v>
       </c>
       <c r="R26" t="n">
-        <v>693.4683880202991</v>
+        <v>622.9236953876992</v>
       </c>
       <c r="S26" t="n">
-        <v>693.4683880202991</v>
+        <v>622.9236953876992</v>
       </c>
       <c r="T26" t="n">
-        <v>693.4683880202991</v>
+        <v>622.9236953876992</v>
       </c>
       <c r="U26" t="n">
-        <v>693.4683880202991</v>
+        <v>622.9236953876992</v>
       </c>
       <c r="V26" t="n">
-        <v>693.4683880202991</v>
+        <v>622.9236953876992</v>
       </c>
       <c r="W26" t="n">
-        <v>693.4683880202991</v>
+        <v>622.9236953876992</v>
       </c>
       <c r="X26" t="n">
-        <v>693.4683880202991</v>
+        <v>622.9236953876992</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.3501082171933</v>
+        <v>622.9236953876992</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.9876475635118</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="C27" t="n">
         <v>13.86936776040598</v>
@@ -6329,28 +6329,28 @@
         <v>693.4683880202991</v>
       </c>
       <c r="R27" t="n">
-        <v>624.1833310430744</v>
+        <v>693.4683880202991</v>
       </c>
       <c r="S27" t="n">
-        <v>624.1833310430744</v>
+        <v>519.9253224593634</v>
       </c>
       <c r="T27" t="n">
-        <v>449.0650512399686</v>
+        <v>519.9253224593634</v>
       </c>
       <c r="U27" t="n">
-        <v>273.9467714368627</v>
+        <v>519.9253224593634</v>
       </c>
       <c r="V27" t="n">
-        <v>273.9467714368627</v>
+        <v>519.9253224593634</v>
       </c>
       <c r="W27" t="n">
-        <v>273.9467714368627</v>
+        <v>364.1059273666177</v>
       </c>
       <c r="X27" t="n">
-        <v>273.9467714368627</v>
+        <v>364.1059273666177</v>
       </c>
       <c r="Y27" t="n">
-        <v>273.9467714368627</v>
+        <v>188.9876475635118</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.86936776040598</v>
+        <v>344.0767217320492</v>
       </c>
       <c r="C28" t="n">
-        <v>13.86936776040598</v>
+        <v>344.0767217320492</v>
       </c>
       <c r="D28" t="n">
-        <v>13.86936776040598</v>
+        <v>344.0767217320492</v>
       </c>
       <c r="E28" t="n">
-        <v>13.86936776040598</v>
+        <v>200.9695083863674</v>
       </c>
       <c r="F28" t="n">
-        <v>13.86936776040598</v>
+        <v>60.63932432733031</v>
       </c>
       <c r="G28" t="n">
         <v>13.86936776040598</v>
@@ -6414,22 +6414,22 @@
         <v>519.195001535155</v>
       </c>
       <c r="T28" t="n">
-        <v>519.195001535155</v>
+        <v>344.0767217320492</v>
       </c>
       <c r="U28" t="n">
-        <v>519.195001535155</v>
+        <v>344.0767217320492</v>
       </c>
       <c r="V28" t="n">
-        <v>519.195001535155</v>
+        <v>344.0767217320492</v>
       </c>
       <c r="W28" t="n">
-        <v>519.195001535155</v>
+        <v>344.0767217320492</v>
       </c>
       <c r="X28" t="n">
         <v>344.0767217320492</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.9876475635118</v>
+        <v>344.0767217320492</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>530.0321854657927</v>
+        <v>188.9876475635118</v>
       </c>
       <c r="C29" t="n">
-        <v>354.9139056626868</v>
+        <v>188.9876475635118</v>
       </c>
       <c r="D29" t="n">
-        <v>354.9139056626868</v>
+        <v>188.9876475635118</v>
       </c>
       <c r="E29" t="n">
-        <v>354.9139056626868</v>
+        <v>188.9876475635118</v>
       </c>
       <c r="F29" t="n">
-        <v>354.9139056626868</v>
+        <v>188.9876475635118</v>
       </c>
       <c r="G29" t="n">
-        <v>354.9139056626868</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="H29" t="n">
-        <v>179.795625859581</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="I29" t="n">
         <v>13.86936776040598</v>
       </c>
       <c r="J29" t="n">
-        <v>98.71728534478538</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="K29" t="n">
-        <v>134.7918130996262</v>
+        <v>49.94389551524681</v>
       </c>
       <c r="L29" t="n">
-        <v>224.5656041741424</v>
+        <v>139.717686589763</v>
       </c>
       <c r="M29" t="n">
-        <v>363.0929579840337</v>
+        <v>278.2450403996543</v>
       </c>
       <c r="N29" t="n">
-        <v>509.4906754266347</v>
+        <v>424.6427578422553</v>
       </c>
       <c r="O29" t="n">
-        <v>631.4608699352785</v>
+        <v>596.2761838772793</v>
       </c>
       <c r="P29" t="n">
         <v>693.4683880202991</v>
@@ -6487,28 +6487,28 @@
         <v>693.4683880202991</v>
       </c>
       <c r="R29" t="n">
-        <v>622.9236953876992</v>
+        <v>693.4683880202991</v>
       </c>
       <c r="S29" t="n">
-        <v>622.9236953876992</v>
+        <v>693.4683880202991</v>
       </c>
       <c r="T29" t="n">
-        <v>530.0321854657927</v>
+        <v>539.2242071697235</v>
       </c>
       <c r="U29" t="n">
-        <v>530.0321854657927</v>
+        <v>539.2242071697235</v>
       </c>
       <c r="V29" t="n">
-        <v>530.0321854657927</v>
+        <v>364.1059273666177</v>
       </c>
       <c r="W29" t="n">
-        <v>530.0321854657927</v>
+        <v>188.9876475635118</v>
       </c>
       <c r="X29" t="n">
-        <v>530.0321854657927</v>
+        <v>188.9876475635118</v>
       </c>
       <c r="Y29" t="n">
-        <v>530.0321854657927</v>
+        <v>188.9876475635118</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13.86936776040598</v>
+        <v>201.892145990689</v>
       </c>
       <c r="C30" t="n">
-        <v>13.86936776040598</v>
+        <v>201.892145990689</v>
       </c>
       <c r="D30" t="n">
-        <v>13.86936776040598</v>
+        <v>201.892145990689</v>
       </c>
       <c r="E30" t="n">
-        <v>13.86936776040598</v>
+        <v>201.892145990689</v>
       </c>
       <c r="F30" t="n">
-        <v>13.86936776040598</v>
+        <v>201.892145990689</v>
       </c>
       <c r="G30" t="n">
-        <v>13.86936776040598</v>
+        <v>201.892145990689</v>
       </c>
       <c r="H30" t="n">
-        <v>13.86936776040598</v>
+        <v>85.27677475873968</v>
       </c>
       <c r="I30" t="n">
         <v>13.86936776040598</v>
       </c>
       <c r="J30" t="n">
-        <v>14.23456737205707</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="K30" t="n">
-        <v>52.80330330515561</v>
+        <v>52.43810369350452</v>
       </c>
       <c r="L30" t="n">
         <v>161.1772286541359</v>
@@ -6566,28 +6566,28 @@
         <v>693.4683880202991</v>
       </c>
       <c r="R30" t="n">
-        <v>693.4683880202991</v>
+        <v>624.1833310430744</v>
       </c>
       <c r="S30" t="n">
-        <v>693.4683880202991</v>
+        <v>450.6402654821387</v>
       </c>
       <c r="T30" t="n">
-        <v>693.4683880202991</v>
+        <v>450.6402654821387</v>
       </c>
       <c r="U30" t="n">
-        <v>518.3501082171933</v>
+        <v>377.0104257937949</v>
       </c>
       <c r="V30" t="n">
-        <v>518.3501082171933</v>
+        <v>201.892145990689</v>
       </c>
       <c r="W30" t="n">
-        <v>343.2318284140875</v>
+        <v>201.892145990689</v>
       </c>
       <c r="X30" t="n">
-        <v>188.9876475635118</v>
+        <v>201.892145990689</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.86936776040598</v>
+        <v>201.892145990689</v>
       </c>
     </row>
     <row r="31">
@@ -6600,13 +6600,13 @@
         <v>344.0767217320492</v>
       </c>
       <c r="C31" t="n">
-        <v>344.0767217320492</v>
+        <v>330.0213966506522</v>
       </c>
       <c r="D31" t="n">
-        <v>344.0767217320492</v>
+        <v>183.3722549832677</v>
       </c>
       <c r="E31" t="n">
-        <v>200.9695083863674</v>
+        <v>183.3722549832677</v>
       </c>
       <c r="F31" t="n">
         <v>183.3722549832677</v>
@@ -6651,7 +6651,7 @@
         <v>519.195001535155</v>
       </c>
       <c r="T31" t="n">
-        <v>344.0767217320492</v>
+        <v>519.195001535155</v>
       </c>
       <c r="U31" t="n">
         <v>344.0767217320492</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.2318284140875</v>
+        <v>364.1059273666177</v>
       </c>
       <c r="C32" t="n">
-        <v>343.2318284140875</v>
+        <v>364.1059273666177</v>
       </c>
       <c r="D32" t="n">
-        <v>343.2318284140875</v>
+        <v>364.1059273666177</v>
       </c>
       <c r="E32" t="n">
-        <v>343.2318284140875</v>
+        <v>364.1059273666177</v>
       </c>
       <c r="F32" t="n">
-        <v>343.2318284140875</v>
+        <v>188.9876475635118</v>
       </c>
       <c r="G32" t="n">
-        <v>343.2318284140875</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="H32" t="n">
-        <v>179.795625859581</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="I32" t="n">
         <v>13.86936776040598</v>
@@ -6703,22 +6703,22 @@
         <v>13.86936776040598</v>
       </c>
       <c r="K32" t="n">
-        <v>49.94389551524681</v>
+        <v>134.7918130996262</v>
       </c>
       <c r="L32" t="n">
-        <v>139.717686589763</v>
+        <v>224.5656041741424</v>
       </c>
       <c r="M32" t="n">
-        <v>278.2450403996543</v>
+        <v>363.0929579840337</v>
       </c>
       <c r="N32" t="n">
-        <v>424.6427578422553</v>
+        <v>509.4906754266347</v>
       </c>
       <c r="O32" t="n">
-        <v>546.6129523508991</v>
+        <v>631.4608699352785</v>
       </c>
       <c r="P32" t="n">
-        <v>608.6204704359197</v>
+        <v>693.4683880202991</v>
       </c>
       <c r="Q32" t="n">
         <v>693.4683880202991</v>
@@ -6733,19 +6733,19 @@
         <v>693.4683880202991</v>
       </c>
       <c r="U32" t="n">
-        <v>518.3501082171933</v>
+        <v>539.2242071697235</v>
       </c>
       <c r="V32" t="n">
-        <v>518.3501082171933</v>
+        <v>539.2242071697235</v>
       </c>
       <c r="W32" t="n">
-        <v>343.2318284140875</v>
+        <v>539.2242071697235</v>
       </c>
       <c r="X32" t="n">
-        <v>343.2318284140875</v>
+        <v>364.1059273666177</v>
       </c>
       <c r="Y32" t="n">
-        <v>343.2318284140875</v>
+        <v>364.1059273666177</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>13.86936776040598</v>
       </c>
       <c r="J33" t="n">
-        <v>14.23456737205707</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="K33" t="n">
-        <v>52.80330330515561</v>
+        <v>52.43810369350452</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1772286541359</v>
+        <v>160.8120290424848</v>
       </c>
       <c r="M33" t="n">
-        <v>311.2598670387362</v>
+        <v>310.8946674270851</v>
       </c>
       <c r="N33" t="n">
-        <v>482.8932930737602</v>
+        <v>482.5280934621092</v>
       </c>
       <c r="O33" t="n">
         <v>612.7961964419028</v>
@@ -6809,16 +6809,16 @@
         <v>693.4683880202991</v>
       </c>
       <c r="T33" t="n">
-        <v>693.4683880202991</v>
+        <v>518.3501082171933</v>
       </c>
       <c r="U33" t="n">
-        <v>518.3501082171933</v>
+        <v>343.2318284140875</v>
       </c>
       <c r="V33" t="n">
-        <v>343.2318284140875</v>
+        <v>188.9876475635118</v>
       </c>
       <c r="W33" t="n">
-        <v>168.1135486109816</v>
+        <v>13.86936776040598</v>
       </c>
       <c r="X33" t="n">
         <v>13.86936776040598</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.86936776040598</v>
+        <v>344.0767217320492</v>
       </c>
       <c r="C34" t="n">
-        <v>13.86936776040598</v>
+        <v>326.4794683289495</v>
       </c>
       <c r="D34" t="n">
-        <v>13.86936776040598</v>
+        <v>326.4794683289495</v>
       </c>
       <c r="E34" t="n">
-        <v>13.86936776040598</v>
+        <v>183.3722549832677</v>
       </c>
       <c r="F34" t="n">
-        <v>13.86936776040598</v>
+        <v>183.3722549832677</v>
       </c>
       <c r="G34" t="n">
         <v>13.86936776040598</v>
@@ -6885,25 +6885,25 @@
         <v>519.195001535155</v>
       </c>
       <c r="S34" t="n">
+        <v>519.195001535155</v>
+      </c>
+      <c r="T34" t="n">
+        <v>519.195001535155</v>
+      </c>
+      <c r="U34" t="n">
+        <v>519.195001535155</v>
+      </c>
+      <c r="V34" t="n">
+        <v>519.195001535155</v>
+      </c>
+      <c r="W34" t="n">
+        <v>519.195001535155</v>
+      </c>
+      <c r="X34" t="n">
         <v>344.0767217320492</v>
       </c>
-      <c r="T34" t="n">
+      <c r="Y34" t="n">
         <v>344.0767217320492</v>
-      </c>
-      <c r="U34" t="n">
-        <v>344.0767217320492</v>
-      </c>
-      <c r="V34" t="n">
-        <v>168.9584419289433</v>
-      </c>
-      <c r="W34" t="n">
-        <v>168.9584419289433</v>
-      </c>
-      <c r="X34" t="n">
-        <v>13.86936776040598</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>13.86936776040598</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>538.8365343168962</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="C35" t="n">
-        <v>363.8441550245812</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="D35" t="n">
+        <v>538.8365343168963</v>
+      </c>
+      <c r="E35" t="n">
+        <v>363.8441550245813</v>
+      </c>
+      <c r="F35" t="n">
         <v>188.8517757322663</v>
-      </c>
-      <c r="E35" t="n">
-        <v>13.85939643995134</v>
-      </c>
-      <c r="F35" t="n">
-        <v>13.85939643995134</v>
       </c>
       <c r="G35" t="n">
         <v>13.85939643995134</v>
@@ -6940,49 +6940,49 @@
         <v>13.85939643995134</v>
       </c>
       <c r="K35" t="n">
-        <v>49.93392419479211</v>
+        <v>134.2932470768943</v>
       </c>
       <c r="L35" t="n">
-        <v>139.7077152693082</v>
+        <v>224.0670381514105</v>
       </c>
       <c r="M35" t="n">
-        <v>278.2350690791994</v>
+        <v>362.5943919613018</v>
       </c>
       <c r="N35" t="n">
-        <v>424.6327865218004</v>
+        <v>508.9921094039028</v>
       </c>
       <c r="O35" t="n">
-        <v>546.6029810304442</v>
+        <v>630.9623039125466</v>
       </c>
       <c r="P35" t="n">
-        <v>608.6104991154648</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="Q35" t="n">
-        <v>692.969821997567</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="R35" t="n">
-        <v>692.969821997567</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="S35" t="n">
-        <v>692.969821997567</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="T35" t="n">
-        <v>692.969821997567</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="U35" t="n">
-        <v>692.969821997567</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="V35" t="n">
-        <v>692.969821997567</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="W35" t="n">
-        <v>692.969821997567</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="X35" t="n">
-        <v>692.969821997567</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="Y35" t="n">
-        <v>692.969821997567</v>
+        <v>622.4251293649673</v>
       </c>
     </row>
     <row r="36">
@@ -7019,43 +7019,43 @@
         <v>13.85939643995134</v>
       </c>
       <c r="K36" t="n">
-        <v>52.42813237304982</v>
+        <v>52.42813237304989</v>
       </c>
       <c r="L36" t="n">
-        <v>160.80205772203</v>
+        <v>160.8020577220302</v>
       </c>
       <c r="M36" t="n">
-        <v>310.8846961066303</v>
+        <v>310.8846961066304</v>
       </c>
       <c r="N36" t="n">
-        <v>482.3947270510283</v>
+        <v>482.3947270510284</v>
       </c>
       <c r="O36" t="n">
-        <v>612.2976304191708</v>
+        <v>612.2976304191709</v>
       </c>
       <c r="P36" t="n">
-        <v>692.969821997567</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="Q36" t="n">
-        <v>692.969821997567</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="R36" t="n">
-        <v>692.969821997567</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="S36" t="n">
-        <v>692.969821997567</v>
+        <v>519.4267564366315</v>
       </c>
       <c r="T36" t="n">
-        <v>692.969821997567</v>
+        <v>519.4267564366315</v>
       </c>
       <c r="U36" t="n">
-        <v>692.969821997567</v>
+        <v>519.4267564366315</v>
       </c>
       <c r="V36" t="n">
-        <v>517.9774427052521</v>
+        <v>519.4267564366315</v>
       </c>
       <c r="W36" t="n">
-        <v>342.9850634129372</v>
+        <v>363.8441550245813</v>
       </c>
       <c r="X36" t="n">
         <v>188.8517757322663</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.85939643995134</v>
+        <v>300.8387221663729</v>
       </c>
       <c r="C37" t="n">
-        <v>13.85939643995134</v>
+        <v>300.8387221663729</v>
       </c>
       <c r="D37" t="n">
-        <v>13.85939643995134</v>
+        <v>154.1895804989884</v>
       </c>
       <c r="E37" t="n">
-        <v>13.85939643995134</v>
+        <v>154.1895804989884</v>
       </c>
       <c r="F37" t="n">
         <v>13.85939643995134</v>
@@ -7098,49 +7098,49 @@
         <v>13.85939643995134</v>
       </c>
       <c r="K37" t="n">
-        <v>50.2029807334176</v>
+        <v>50.20298073341762</v>
       </c>
       <c r="L37" t="n">
-        <v>149.7975018793087</v>
+        <v>149.7975018793088</v>
       </c>
       <c r="M37" t="n">
-        <v>263.4018498947243</v>
+        <v>263.4018498947244</v>
       </c>
       <c r="N37" t="n">
-        <v>382.3210766920993</v>
+        <v>382.3210766920994</v>
       </c>
       <c r="O37" t="n">
-        <v>470.1645839198166</v>
+        <v>470.1645839198167</v>
       </c>
       <c r="P37" t="n">
-        <v>519.1850302147002</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="Q37" t="n">
-        <v>466.2078596941732</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="R37" t="n">
-        <v>466.2078596941732</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="S37" t="n">
-        <v>466.2078596941732</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="T37" t="n">
-        <v>466.2078596941732</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="U37" t="n">
-        <v>466.2078596941732</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="V37" t="n">
-        <v>363.8441550245812</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8517757322663</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="X37" t="n">
-        <v>13.85939643995134</v>
+        <v>475.8311014586879</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.85939643995134</v>
+        <v>300.8387221663729</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.85939643995134</v>
+        <v>188.8517757322663</v>
       </c>
       <c r="C38" t="n">
-        <v>13.85939643995134</v>
+        <v>188.8517757322663</v>
       </c>
       <c r="D38" t="n">
-        <v>13.85939643995134</v>
+        <v>188.8517757322663</v>
       </c>
       <c r="E38" t="n">
-        <v>13.85939643995134</v>
+        <v>188.8517757322663</v>
       </c>
       <c r="F38" t="n">
         <v>13.85939643995134</v>
@@ -7177,49 +7177,49 @@
         <v>13.85939643995134</v>
       </c>
       <c r="K38" t="n">
-        <v>49.93392419479211</v>
+        <v>49.93392419479217</v>
       </c>
       <c r="L38" t="n">
-        <v>139.7077152693082</v>
+        <v>139.7077152693084</v>
       </c>
       <c r="M38" t="n">
-        <v>278.2350690791994</v>
+        <v>278.2350690791997</v>
       </c>
       <c r="N38" t="n">
-        <v>424.6327865218004</v>
+        <v>424.6327865218007</v>
       </c>
       <c r="O38" t="n">
-        <v>546.6029810304442</v>
+        <v>546.6029810304445</v>
       </c>
       <c r="P38" t="n">
-        <v>692.969821997567</v>
+        <v>608.6104991154651</v>
       </c>
       <c r="Q38" t="n">
-        <v>692.969821997567</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="R38" t="n">
-        <v>692.969821997567</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="S38" t="n">
-        <v>692.969821997567</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="T38" t="n">
-        <v>692.969821997567</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="U38" t="n">
-        <v>692.969821997567</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="V38" t="n">
-        <v>517.9774427052521</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="W38" t="n">
-        <v>342.9850634129372</v>
+        <v>622.4251293649673</v>
       </c>
       <c r="X38" t="n">
-        <v>167.9926841206222</v>
+        <v>538.8365343168963</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.85939643995134</v>
+        <v>363.8441550245813</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>201.8821746702344</v>
+        <v>167.9926841206224</v>
       </c>
       <c r="C39" t="n">
-        <v>201.8821746702344</v>
+        <v>167.9926841206224</v>
       </c>
       <c r="D39" t="n">
-        <v>201.8821746702344</v>
+        <v>167.9926841206224</v>
       </c>
       <c r="E39" t="n">
-        <v>201.8821746702344</v>
+        <v>167.9926841206224</v>
       </c>
       <c r="F39" t="n">
-        <v>201.8821746702344</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="G39" t="n">
-        <v>201.8821746702344</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="H39" t="n">
-        <v>85.26680343828505</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="I39" t="n">
         <v>13.85939643995134</v>
@@ -7256,49 +7256,49 @@
         <v>13.85939643995134</v>
       </c>
       <c r="K39" t="n">
-        <v>52.42813237304983</v>
+        <v>52.42813237304988</v>
       </c>
       <c r="L39" t="n">
         <v>160.8020577220301</v>
       </c>
       <c r="M39" t="n">
-        <v>310.8846961066303</v>
+        <v>310.8846961066304</v>
       </c>
       <c r="N39" t="n">
-        <v>482.3947270510282</v>
+        <v>482.3947270510283</v>
       </c>
       <c r="O39" t="n">
-        <v>612.2976304191708</v>
+        <v>612.2976304191709</v>
       </c>
       <c r="P39" t="n">
-        <v>692.969821997567</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="Q39" t="n">
-        <v>692.969821997567</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="R39" t="n">
-        <v>692.969821997567</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="S39" t="n">
-        <v>692.969821997567</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="T39" t="n">
-        <v>692.969821997567</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="U39" t="n">
-        <v>692.969821997567</v>
+        <v>692.9698219975672</v>
       </c>
       <c r="V39" t="n">
-        <v>517.9774427052521</v>
+        <v>517.9774427052523</v>
       </c>
       <c r="W39" t="n">
-        <v>517.9774427052521</v>
+        <v>342.9850634129373</v>
       </c>
       <c r="X39" t="n">
-        <v>517.9774427052521</v>
+        <v>342.9850634129373</v>
       </c>
       <c r="Y39" t="n">
-        <v>376.8745539625493</v>
+        <v>342.9850634129373</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.9979630783072</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="C40" t="n">
         <v>13.85939643995134</v>
@@ -7335,49 +7335,49 @@
         <v>13.85939643995134</v>
       </c>
       <c r="K40" t="n">
-        <v>50.2029807334176</v>
+        <v>50.20298073341762</v>
       </c>
       <c r="L40" t="n">
-        <v>149.7975018793087</v>
+        <v>149.7975018793088</v>
       </c>
       <c r="M40" t="n">
-        <v>263.4018498947243</v>
+        <v>263.4018498947244</v>
       </c>
       <c r="N40" t="n">
-        <v>382.3210766920993</v>
+        <v>382.3210766920994</v>
       </c>
       <c r="O40" t="n">
-        <v>470.1645839198166</v>
+        <v>470.1645839198167</v>
       </c>
       <c r="P40" t="n">
-        <v>519.1850302147002</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="Q40" t="n">
-        <v>519.1850302147002</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="R40" t="n">
-        <v>519.1850302147002</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="S40" t="n">
-        <v>519.1850302147002</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="T40" t="n">
-        <v>519.1850302147002</v>
+        <v>519.1850302147003</v>
       </c>
       <c r="U40" t="n">
-        <v>519.1850302147002</v>
+        <v>344.1926509223853</v>
       </c>
       <c r="V40" t="n">
-        <v>519.1850302147002</v>
+        <v>188.8517757322663</v>
       </c>
       <c r="W40" t="n">
-        <v>519.1850302147002</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="X40" t="n">
-        <v>519.1850302147002</v>
+        <v>13.85939643995134</v>
       </c>
       <c r="Y40" t="n">
-        <v>356.9903423706222</v>
+        <v>13.85939643995134</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>165.3925453533842</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="C41" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="D41" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="E41" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="F41" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="G41" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="H41" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="I41" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="J41" t="n">
-        <v>12.1377776056223</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="K41" t="n">
-        <v>48.21230536046306</v>
+        <v>48.21230536046355</v>
       </c>
       <c r="L41" t="n">
-        <v>137.9860964349792</v>
+        <v>137.9860964349797</v>
       </c>
       <c r="M41" t="n">
-        <v>276.5134502448704</v>
+        <v>276.513450244871</v>
       </c>
       <c r="N41" t="n">
-        <v>422.9111676874713</v>
+        <v>422.911167687472</v>
       </c>
       <c r="O41" t="n">
-        <v>544.8813621961151</v>
+        <v>544.8813621961159</v>
       </c>
       <c r="P41" t="n">
-        <v>606.8888802811356</v>
+        <v>606.8888802811365</v>
       </c>
       <c r="Q41" t="n">
-        <v>606.8888802811356</v>
+        <v>606.888880281136</v>
       </c>
       <c r="R41" t="n">
-        <v>606.8888802811356</v>
+        <v>606.888880281136</v>
       </c>
       <c r="S41" t="n">
-        <v>471.9020808489073</v>
+        <v>453.6341125333744</v>
       </c>
       <c r="T41" t="n">
-        <v>318.6473131011458</v>
+        <v>300.3793447856127</v>
       </c>
       <c r="U41" t="n">
-        <v>318.6473131011458</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="V41" t="n">
-        <v>318.6473131011458</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="W41" t="n">
-        <v>318.6473131011458</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="X41" t="n">
-        <v>318.6473131011458</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.6473131011458</v>
+        <v>12.13777760562272</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3925453533842</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="C42" t="n">
-        <v>12.13777760562271</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="D42" t="n">
-        <v>12.13777760562271</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="E42" t="n">
-        <v>12.13777760562271</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="F42" t="n">
-        <v>12.13777760562271</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="G42" t="n">
-        <v>12.13777760562271</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="H42" t="n">
-        <v>12.13777760562271</v>
+        <v>30.50920580590174</v>
       </c>
       <c r="I42" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="J42" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="K42" t="n">
-        <v>12.13777760562271</v>
+        <v>50.70651353872126</v>
       </c>
       <c r="L42" t="n">
-        <v>120.5117029546029</v>
+        <v>159.0804388877015</v>
       </c>
       <c r="M42" t="n">
-        <v>270.5943413392031</v>
+        <v>309.1630772723018</v>
       </c>
       <c r="N42" t="n">
-        <v>396.3137853345968</v>
+        <v>396.3137853345971</v>
       </c>
       <c r="O42" t="n">
-        <v>526.2166887027394</v>
+        <v>526.2166887027397</v>
       </c>
       <c r="P42" t="n">
-        <v>606.8888802811356</v>
+        <v>606.888880281136</v>
       </c>
       <c r="Q42" t="n">
-        <v>606.8888802811356</v>
+        <v>606.888880281136</v>
       </c>
       <c r="R42" t="n">
-        <v>606.8888802811356</v>
+        <v>606.888880281136</v>
       </c>
       <c r="S42" t="n">
-        <v>606.8888802811356</v>
+        <v>606.888880281136</v>
       </c>
       <c r="T42" t="n">
-        <v>606.8888802811356</v>
+        <v>453.6341125333744</v>
       </c>
       <c r="U42" t="n">
-        <v>606.8888802811356</v>
+        <v>453.6341125333744</v>
       </c>
       <c r="V42" t="n">
-        <v>606.8888802811356</v>
+        <v>300.3793447856127</v>
       </c>
       <c r="W42" t="n">
-        <v>453.634112533374</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="X42" t="n">
-        <v>453.634112533374</v>
+        <v>147.1245770378511</v>
       </c>
       <c r="Y42" t="n">
-        <v>300.3793447856125</v>
+        <v>147.1245770378511</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>606.8888802811356</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="C43" t="n">
-        <v>606.8888802811356</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="D43" t="n">
-        <v>606.8888802811356</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="E43" t="n">
-        <v>606.8888802811356</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="F43" t="n">
-        <v>466.5586962220985</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="G43" t="n">
-        <v>313.303928474337</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="H43" t="n">
-        <v>160.0491607265755</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="I43" t="n">
-        <v>101.5632465063868</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="J43" t="n">
-        <v>101.5632465063868</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="K43" t="n">
-        <v>137.906830799853</v>
+        <v>48.48136189908899</v>
       </c>
       <c r="L43" t="n">
-        <v>237.5013519457441</v>
+        <v>148.0758830449801</v>
       </c>
       <c r="M43" t="n">
-        <v>351.1056999611598</v>
+        <v>261.6802310603958</v>
       </c>
       <c r="N43" t="n">
-        <v>470.0249267585348</v>
+        <v>380.5994578577709</v>
       </c>
       <c r="O43" t="n">
-        <v>557.8684339862521</v>
+        <v>468.4429650854882</v>
       </c>
       <c r="P43" t="n">
-        <v>606.8888802811356</v>
+        <v>517.4634113803718</v>
       </c>
       <c r="Q43" t="n">
-        <v>606.8888802811356</v>
+        <v>517.4634113803718</v>
       </c>
       <c r="R43" t="n">
-        <v>606.8888802811356</v>
+        <v>517.4634113803718</v>
       </c>
       <c r="S43" t="n">
-        <v>606.8888802811356</v>
+        <v>517.4634113803718</v>
       </c>
       <c r="T43" t="n">
-        <v>606.8888802811356</v>
+        <v>517.4634113803718</v>
       </c>
       <c r="U43" t="n">
-        <v>606.8888802811356</v>
+        <v>364.2086436326101</v>
       </c>
       <c r="V43" t="n">
-        <v>606.8888802811356</v>
+        <v>364.2086436326101</v>
       </c>
       <c r="W43" t="n">
-        <v>606.8888802811356</v>
+        <v>364.2086436326101</v>
       </c>
       <c r="X43" t="n">
-        <v>606.8888802811356</v>
+        <v>210.9538758848485</v>
       </c>
       <c r="Y43" t="n">
-        <v>606.8888802811356</v>
+        <v>165.3925453533843</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>471.9020808489073</v>
+        <v>318.647313101146</v>
       </c>
       <c r="C44" t="n">
-        <v>471.9020808489073</v>
+        <v>318.647313101146</v>
       </c>
       <c r="D44" t="n">
-        <v>471.9020808489073</v>
+        <v>318.647313101146</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9020808489073</v>
+        <v>318.647313101146</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9020808489073</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="G44" t="n">
-        <v>318.6473131011458</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="H44" t="n">
-        <v>165.3925453533842</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="I44" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="J44" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="K44" t="n">
         <v>48.21230536046346</v>
       </c>
       <c r="L44" t="n">
-        <v>137.9860964349793</v>
+        <v>137.9860964349796</v>
       </c>
       <c r="M44" t="n">
-        <v>276.5134502448705</v>
+        <v>276.5134502448707</v>
       </c>
       <c r="N44" t="n">
-        <v>422.9111676874712</v>
+        <v>422.9111676874716</v>
       </c>
       <c r="O44" t="n">
-        <v>544.8813621961151</v>
+        <v>544.8813621961154</v>
       </c>
       <c r="P44" t="n">
-        <v>606.8888802811356</v>
+        <v>606.888880281136</v>
       </c>
       <c r="Q44" t="n">
-        <v>606.8888802811356</v>
+        <v>606.888880281136</v>
       </c>
       <c r="R44" t="n">
-        <v>606.8888802811356</v>
+        <v>536.3441876485361</v>
       </c>
       <c r="S44" t="n">
-        <v>606.8888802811356</v>
+        <v>536.3441876485361</v>
       </c>
       <c r="T44" t="n">
-        <v>606.8888802811356</v>
+        <v>536.3441876485361</v>
       </c>
       <c r="U44" t="n">
-        <v>606.8888802811356</v>
+        <v>536.3441876485361</v>
       </c>
       <c r="V44" t="n">
-        <v>606.8888802811356</v>
+        <v>471.9020808489076</v>
       </c>
       <c r="W44" t="n">
-        <v>606.8888802811356</v>
+        <v>318.647313101146</v>
       </c>
       <c r="X44" t="n">
-        <v>606.8888802811356</v>
+        <v>318.647313101146</v>
       </c>
       <c r="Y44" t="n">
-        <v>471.9020808489073</v>
+        <v>318.647313101146</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>277.9243985930962</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="C45" t="n">
-        <v>277.9243985930962</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="D45" t="n">
-        <v>277.9243985930962</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9243985930962</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="F45" t="n">
-        <v>277.9243985930962</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="G45" t="n">
-        <v>128.7531488375721</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="H45" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="I45" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="J45" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="K45" t="n">
-        <v>12.13777760562271</v>
+        <v>50.70651353872126</v>
       </c>
       <c r="L45" t="n">
-        <v>96.02614908041554</v>
+        <v>159.0804388877015</v>
       </c>
       <c r="M45" t="n">
-        <v>246.1087874650158</v>
+        <v>309.1630772723018</v>
       </c>
       <c r="N45" t="n">
-        <v>396.3137853345968</v>
+        <v>459.368075141883</v>
       </c>
       <c r="O45" t="n">
-        <v>526.2166887027394</v>
+        <v>589.2709785100255</v>
       </c>
       <c r="P45" t="n">
-        <v>606.8888802811356</v>
+        <v>606.888880281136</v>
       </c>
       <c r="Q45" t="n">
-        <v>606.8888802811356</v>
+        <v>606.888880281136</v>
       </c>
       <c r="R45" t="n">
-        <v>606.8888802811356</v>
+        <v>606.888880281136</v>
       </c>
       <c r="S45" t="n">
-        <v>606.8888802811356</v>
+        <v>606.888880281136</v>
       </c>
       <c r="T45" t="n">
-        <v>606.8888802811356</v>
+        <v>453.6341125333744</v>
       </c>
       <c r="U45" t="n">
-        <v>606.8888802811356</v>
+        <v>300.3793447856127</v>
       </c>
       <c r="V45" t="n">
-        <v>606.8888802811356</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="W45" t="n">
-        <v>453.634112533374</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="X45" t="n">
-        <v>453.634112533374</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="Y45" t="n">
-        <v>431.1791663408577</v>
+        <v>12.13777760562272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="C46" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="D46" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="E46" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="F46" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="G46" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="H46" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="I46" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="J46" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
       <c r="K46" t="n">
-        <v>48.48136189908897</v>
+        <v>48.48136189908899</v>
       </c>
       <c r="L46" t="n">
         <v>148.0758830449801</v>
       </c>
       <c r="M46" t="n">
-        <v>261.6802310603957</v>
+        <v>261.6802310603958</v>
       </c>
       <c r="N46" t="n">
-        <v>380.5994578577707</v>
+        <v>380.5994578577709</v>
       </c>
       <c r="O46" t="n">
-        <v>468.442965085488</v>
+        <v>468.4429650854882</v>
       </c>
       <c r="P46" t="n">
-        <v>517.4634113803716</v>
+        <v>517.4634113803718</v>
       </c>
       <c r="Q46" t="n">
-        <v>517.4634113803716</v>
+        <v>517.4634113803718</v>
       </c>
       <c r="R46" t="n">
-        <v>517.4634113803716</v>
+        <v>517.4634113803718</v>
       </c>
       <c r="S46" t="n">
-        <v>517.4634113803716</v>
+        <v>517.4634113803718</v>
       </c>
       <c r="T46" t="n">
-        <v>517.4634113803716</v>
+        <v>517.4634113803718</v>
       </c>
       <c r="U46" t="n">
-        <v>364.20864363261</v>
+        <v>471.9020808489076</v>
       </c>
       <c r="V46" t="n">
-        <v>210.9538758848485</v>
+        <v>318.647313101146</v>
       </c>
       <c r="W46" t="n">
-        <v>57.69910813708697</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="X46" t="n">
-        <v>12.13777760562271</v>
+        <v>165.3925453533843</v>
       </c>
       <c r="Y46" t="n">
-        <v>12.13777760562271</v>
+        <v>12.13777760562272</v>
       </c>
     </row>
   </sheetData>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>17.40617075943069</v>
+        <v>17.40617075943072</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>12.32897690155573</v>
+        <v>12.32897690155579</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9005,7 +9005,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>33.55666604751472</v>
+        <v>33.55666604751474</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.044642390086921</v>
+        <v>7.044642390086949</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17.40617075943072</v>
+        <v>102.6176080140794</v>
       </c>
       <c r="K17" t="n">
-        <v>59.84546402051052</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>25.36597323413838</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>102.6176080140796</v>
+        <v>17.40617075943072</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>85.21143725464864</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>26.77387552204401</v>
+        <v>82.68649996010893</v>
       </c>
       <c r="M23" t="n">
-        <v>33.4404769950836</v>
+        <v>3.018467296839987</v>
       </c>
       <c r="N23" t="n">
-        <v>25.4906147398213</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>33.55666604751474</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3688884966172665</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.3688884966172736</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9877,16 +9877,16 @@
         <v>17.40617075943072</v>
       </c>
       <c r="K26" t="n">
-        <v>60.21435251712762</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>52.26449026186529</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>33.4404769950836</v>
       </c>
       <c r="N26" t="n">
-        <v>25.4906147398213</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>103.1111380163796</v>
+        <v>17.40617075943072</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>50.16488032967695</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>35.54008692727194</v>
       </c>
       <c r="Q29" t="n">
         <v>12.32897690155579</v>
@@ -10190,13 +10190,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>33.925554544132</v>
+        <v>33.55666604751474</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.3688884966172736</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>17.40617075943072</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>85.7049672569489</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.03394415850467</v>
+        <v>12.32897690155579</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10427,7 +10427,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>33.925554544132</v>
+        <v>33.55666604751474</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.3688884966172452</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>17.40617075943075</v>
+        <v>17.40617075943072</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>85.21143725464864</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>97.54041415620455</v>
+        <v>12.32897690155579</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10664,7 +10664,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>33.55666604751477</v>
+        <v>33.55666604751474</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.044642390086977</v>
+        <v>7.044642390086949</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>17.40617075943075</v>
+        <v>17.40617075943072</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>85.21143725464876</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>12.32897690155585</v>
+        <v>97.54041415620438</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10901,7 +10901,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>33.55666604751477</v>
+        <v>33.55666604751474</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.044642390086977</v>
+        <v>7.044642390086949</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>17.40617075943075</v>
+        <v>17.40617075943072</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>12.32897690155585</v>
+        <v>12.32897690155579</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11138,7 +11138,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>33.55666604751477</v>
+        <v>33.55666604751474</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.044642390086977</v>
+        <v>7.044642390086949</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>17.40617075943075</v>
+        <v>17.40617075943072</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>12.32897690155585</v>
+        <v>12.32897690155579</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,7 +11375,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>33.55666604751477</v>
+        <v>33.55666604751474</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.044642390086977</v>
+        <v>7.044642390086949</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>222.3650203075493</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>198.4832773108948</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>204.1352282043212</v>
       </c>
       <c r="E11" t="n">
         <v>371.4789120616362</v>
@@ -23275,10 +23275,10 @@
         <v>416.8475686257756</v>
       </c>
       <c r="H11" t="n">
-        <v>174.9129018732667</v>
+        <v>326.6351219435509</v>
       </c>
       <c r="I11" t="n">
-        <v>30.63006408027704</v>
+        <v>164.2669955181832</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>69.83924570627391</v>
       </c>
       <c r="S11" t="n">
-        <v>30.43387816167262</v>
+        <v>182.1560982319567</v>
       </c>
       <c r="T11" t="n">
-        <v>62.02979084487396</v>
+        <v>213.7520109151581</v>
       </c>
       <c r="U11" t="n">
         <v>249.9912931456999</v>
@@ -23323,7 +23323,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>208.0604942244221</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.11356295975958</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -23348,7 +23348,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>7.101219049644357</v>
       </c>
       <c r="G12" t="n">
         <v>147.6795372579688</v>
@@ -23387,13 +23387,13 @@
         <v>68.59220640745251</v>
       </c>
       <c r="S12" t="n">
-        <v>171.8076349053263</v>
+        <v>20.08541483504231</v>
       </c>
       <c r="T12" t="n">
-        <v>58.9557352364838</v>
+        <v>58.95573523648395</v>
       </c>
       <c r="U12" t="n">
-        <v>85.43577921498226</v>
+        <v>237.1579992852664</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23402,10 +23402,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>83.6759830015645</v>
       </c>
       <c r="Y12" t="n">
-        <v>71.66206606374149</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>25.89470059468411</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>14.73496090168837</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.341681589172495</v>
+        <v>52.44739881532165</v>
       </c>
       <c r="R13" t="n">
-        <v>11.55896483566747</v>
+        <v>163.2811849059516</v>
       </c>
       <c r="S13" t="n">
-        <v>68.15472359418973</v>
+        <v>174.7712264383242</v>
       </c>
       <c r="T13" t="n">
-        <v>68.22414937127405</v>
+        <v>68.22414937127419</v>
       </c>
       <c r="U13" t="n">
         <v>288.6078524280282</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>222.3650203075493</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>216.5685659432727</v>
       </c>
       <c r="D14" t="n">
         <v>337.7721596422273</v>
@@ -23506,16 +23506,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>269.5623182021072</v>
+        <v>251.4770295697295</v>
       </c>
       <c r="G14" t="n">
-        <v>265.1253485554915</v>
+        <v>416.8475686257756</v>
       </c>
       <c r="H14" t="n">
-        <v>174.9129018732668</v>
+        <v>326.6351219435509</v>
       </c>
       <c r="I14" t="n">
-        <v>12.54477544789907</v>
+        <v>12.54477544789921</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.83924570627389</v>
+        <v>69.83924570627391</v>
       </c>
       <c r="S14" t="n">
         <v>182.1560982319567</v>
@@ -23579,22 +23579,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>7.450095006294561</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>20.10535176951569</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>7.101219049644357</v>
       </c>
       <c r="G15" t="n">
-        <v>147.6795372579688</v>
+        <v>14.04260582006273</v>
       </c>
       <c r="H15" t="n">
         <v>115.4492175196298</v>
       </c>
       <c r="I15" t="n">
-        <v>70.69333292835034</v>
+        <v>70.69333292835036</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>68.59220640745249</v>
+        <v>68.59220640745251</v>
       </c>
       <c r="S15" t="n">
         <v>171.8076349053263</v>
@@ -23630,19 +23630,19 @@
         <v>210.6779553067679</v>
       </c>
       <c r="U15" t="n">
-        <v>85.43577921498229</v>
+        <v>237.1579992852664</v>
       </c>
       <c r="V15" t="n">
-        <v>88.92670084511815</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>65.59069436918651</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>89.7473546961194</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23664,7 +23664,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>93.8211649922974</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>167.807858350633</v>
@@ -23676,7 +23676,7 @@
         <v>138.000531384999</v>
       </c>
       <c r="J16" t="n">
-        <v>57.11040562298552</v>
+        <v>57.11040562298554</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.44739881532163</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.55896483566747</v>
+        <v>163.2811849059516</v>
       </c>
       <c r="S16" t="n">
-        <v>68.15472359418976</v>
+        <v>75.4964051833619</v>
       </c>
       <c r="T16" t="n">
-        <v>68.22414937127408</v>
+        <v>219.9463694415582</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6078524280282</v>
+        <v>136.8856323577442</v>
       </c>
       <c r="V16" t="n">
-        <v>245.1090151844499</v>
+        <v>93.38679511416592</v>
       </c>
       <c r="W16" t="n">
         <v>290.3107070893353</v>
@@ -23734,7 +23734,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>176.963041881787</v>
       </c>
       <c r="D17" t="n">
         <v>337.7721596422273</v>
@@ -23743,16 +23743,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>241.6318348549405</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>243.6051131263838</v>
+        <v>416.8475686257756</v>
       </c>
       <c r="H17" t="n">
-        <v>153.392666444159</v>
+        <v>326.6351219435509</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>164.2669955181832</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>182.1560982319567</v>
       </c>
       <c r="T17" t="n">
-        <v>213.7520109151581</v>
+        <v>40.50955541576627</v>
       </c>
       <c r="U17" t="n">
-        <v>249.9912931456999</v>
+        <v>76.74883764630812</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>168.2878288052877</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -23813,7 +23813,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>14.27569602497411</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -23822,13 +23822,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>147.6795372579688</v>
+        <v>49.26077248209357</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>115.4492175196298</v>
       </c>
       <c r="I18" t="n">
         <v>70.69333292835036</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>68.59220640745251</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.8076349053263</v>
       </c>
       <c r="T18" t="n">
-        <v>172.1003974284679</v>
+        <v>37.43549980737612</v>
       </c>
       <c r="U18" t="n">
-        <v>63.91554378587452</v>
+        <v>237.1579992852664</v>
       </c>
       <c r="V18" t="n">
-        <v>67.40646541601038</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.6169206649681</v>
+        <v>4.374465165576282</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23898,10 +23898,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E19" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.807858350633</v>
@@ -23946,19 +23946,19 @@
         <v>219.9463694415582</v>
       </c>
       <c r="U19" t="n">
-        <v>115.3653969286363</v>
+        <v>288.6078524280282</v>
       </c>
       <c r="V19" t="n">
-        <v>71.86655968505804</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>136.5232406511176</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.1412728141684</v>
+        <v>170.7143743072305</v>
       </c>
     </row>
     <row r="20">
@@ -23977,16 +23977,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>218.8869572577719</v>
+        <v>198.2364565622443</v>
       </c>
       <c r="F20" t="n">
-        <v>229.9567941406216</v>
+        <v>229.9567941406217</v>
       </c>
       <c r="G20" t="n">
         <v>243.6051131263838</v>
       </c>
       <c r="H20" t="n">
-        <v>326.6351219435509</v>
+        <v>174.0431671396866</v>
       </c>
       <c r="I20" t="n">
         <v>164.2669955181832</v>
@@ -24025,7 +24025,7 @@
         <v>213.7520109151581</v>
       </c>
       <c r="U20" t="n">
-        <v>76.74883764630806</v>
+        <v>249.9912931456999</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24050,10 +24050,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>14.27569602497411</v>
       </c>
       <c r="D21" t="n">
-        <v>5.145539678648731</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -24098,16 +24098,16 @@
         <v>68.59220640745251</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>5.145539678648902</v>
       </c>
       <c r="T21" t="n">
         <v>210.6779553067679</v>
       </c>
       <c r="U21" t="n">
-        <v>63.91554378587452</v>
+        <v>237.1579992852664</v>
       </c>
       <c r="V21" t="n">
-        <v>67.40646541601038</v>
+        <v>67.40646541601043</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -24132,16 +24132,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>141.676141212225</v>
+        <v>127.6367278759591</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>152.9472741308621</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>157.8855575470666</v>
@@ -24177,7 +24177,7 @@
         <v>163.2811849059516</v>
       </c>
       <c r="S22" t="n">
-        <v>46.63448816508199</v>
+        <v>219.8769436644739</v>
       </c>
       <c r="T22" t="n">
         <v>219.9463694415582</v>
@@ -24186,10 +24186,10 @@
         <v>288.6078524280282</v>
       </c>
       <c r="V22" t="n">
-        <v>245.1090151844499</v>
+        <v>71.86655968505809</v>
       </c>
       <c r="W22" t="n">
-        <v>117.0682515899435</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24214,13 +24214,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>198.1118150565614</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>229.8321526349387</v>
       </c>
       <c r="G23" t="n">
-        <v>416.8475686257756</v>
+        <v>243.4804716207009</v>
       </c>
       <c r="H23" t="n">
         <v>326.6351219435509</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>8.789001226881965</v>
+        <v>182.1560982319567</v>
       </c>
       <c r="T23" t="n">
-        <v>130.8895175793622</v>
+        <v>213.7520109151581</v>
       </c>
       <c r="U23" t="n">
-        <v>76.62419614062514</v>
+        <v>167.128799809904</v>
       </c>
       <c r="V23" t="n">
-        <v>147.5126866040772</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -24305,7 +24305,7 @@
         <v>115.4492175196298</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>70.69333292835036</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>68.59220640745251</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.8076349053263</v>
       </c>
       <c r="T24" t="n">
-        <v>37.31085830169314</v>
+        <v>210.6779553067679</v>
       </c>
       <c r="U24" t="n">
-        <v>153.5901310717985</v>
+        <v>63.7909022801916</v>
       </c>
       <c r="V24" t="n">
         <v>67.28182391032746</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>114.0028445349417</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>50.01718912895083</v>
       </c>
     </row>
     <row r="25">
@@ -24375,7 +24375,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.807858350633</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>52.44739881532165</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>163.2811849059516</v>
       </c>
       <c r="S25" t="n">
-        <v>46.50984665939907</v>
+        <v>219.8769436644739</v>
       </c>
       <c r="T25" t="n">
-        <v>108.7696727309046</v>
+        <v>46.57927243648339</v>
       </c>
       <c r="U25" t="n">
         <v>288.6078524280282</v>
       </c>
       <c r="V25" t="n">
-        <v>245.1090151844499</v>
+        <v>71.74191817937512</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>275.69940588093</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>221.3855013357635</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>176.838400376104</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>245.8095648195398</v>
       </c>
       <c r="E26" t="n">
-        <v>198.1118150565614</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>416.8475686257756</v>
+        <v>243.4804716207009</v>
       </c>
       <c r="H26" t="n">
-        <v>326.6351219435509</v>
+        <v>153.2680249384761</v>
       </c>
       <c r="I26" t="n">
-        <v>164.2669955181832</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.83924570627391</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>182.1560982319567</v>
@@ -24511,7 +24511,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>208.9184704133751</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>92.64096176304837</v>
+        <v>3.38339739259095</v>
       </c>
       <c r="C27" t="n">
-        <v>14.15105451929114</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>68.59220640745251</v>
       </c>
       <c r="S27" t="n">
-        <v>171.8076349053263</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>37.31085830169314</v>
+        <v>210.6779553067679</v>
       </c>
       <c r="U27" t="n">
-        <v>63.7909022801916</v>
+        <v>237.1579992852664</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>112.4433824351933</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>50.01718912895083</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.249823659893309</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -24609,13 +24609,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.807858350633</v>
+        <v>121.505601349378</v>
       </c>
       <c r="H28" t="n">
         <v>157.8855575470666</v>
@@ -24654,7 +24654,7 @@
         <v>219.8769436644739</v>
       </c>
       <c r="T28" t="n">
-        <v>219.9463694415582</v>
+        <v>46.57927243648339</v>
       </c>
       <c r="U28" t="n">
         <v>288.6078524280282</v>
@@ -24666,10 +24666,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
-        <v>48.55235840316774</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
-        <v>63.60308938731646</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>176.838400376104</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
@@ -24694,13 +24694,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>416.8475686257756</v>
+        <v>243.4804716207009</v>
       </c>
       <c r="H29" t="n">
-        <v>153.2680249384761</v>
+        <v>326.6351219435509</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>164.2669955181832</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>69.83924570627391</v>
       </c>
       <c r="S29" t="n">
         <v>182.1560982319567</v>
       </c>
       <c r="T29" t="n">
-        <v>121.7894160924706</v>
+        <v>61.05027187308823</v>
       </c>
       <c r="U29" t="n">
         <v>249.9912931456999</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>147.5126866040772</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>164.5293668206921</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
@@ -24776,10 +24776,10 @@
         <v>147.6795372579688</v>
       </c>
       <c r="H30" t="n">
-        <v>115.4492175196298</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>70.69333292835036</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>68.59220640745251</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.8076349053263</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>210.6779553067679</v>
       </c>
       <c r="U30" t="n">
-        <v>63.7909022801916</v>
+        <v>164.264457993806</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>67.28182391032746</v>
       </c>
       <c r="W30" t="n">
-        <v>93.33748657193681</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>64.61117539740073</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>50.01718912895083</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -24840,16 +24840,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>152.5424091413894</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>121.5056013493779</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>219.8769436644739</v>
       </c>
       <c r="T31" t="n">
-        <v>46.57927243648339</v>
+        <v>219.9463694415582</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6078524280282</v>
+        <v>115.2407554229534</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24928,16 +24928,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>229.8321526349387</v>
       </c>
       <c r="G32" t="n">
-        <v>416.8475686257756</v>
+        <v>243.4804716207009</v>
       </c>
       <c r="H32" t="n">
-        <v>164.8332814145894</v>
+        <v>326.6351219435509</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>164.2669955181832</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>213.7520109151581</v>
       </c>
       <c r="U32" t="n">
-        <v>76.62419614062514</v>
+        <v>97.28955410363008</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>164.5293668206921</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>186.4156172896313</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -25049,19 +25049,19 @@
         <v>171.8076349053263</v>
       </c>
       <c r="T33" t="n">
-        <v>210.6779553067679</v>
+        <v>37.31085830169314</v>
       </c>
       <c r="U33" t="n">
         <v>63.7909022801916</v>
       </c>
       <c r="V33" t="n">
-        <v>67.28182391032746</v>
+        <v>87.94718187333237</v>
       </c>
       <c r="W33" t="n">
         <v>93.33748657193681</v>
       </c>
       <c r="X33" t="n">
-        <v>64.61117539740073</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -25077,19 +25077,19 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>149.0359001029036</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>167.807858350633</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.8855575470666</v>
@@ -25125,7 +25125,7 @@
         <v>163.2811849059516</v>
       </c>
       <c r="S34" t="n">
-        <v>46.50984665939907</v>
+        <v>219.8769436644739</v>
       </c>
       <c r="T34" t="n">
         <v>219.9463694415582</v>
@@ -25134,13 +25134,13 @@
         <v>288.6078524280282</v>
       </c>
       <c r="V34" t="n">
-        <v>71.74191817937512</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
-        <v>68.38127198139057</v>
+        <v>48.55235840316774</v>
       </c>
       <c r="Y34" t="n">
         <v>217.1412728141684</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>221.4952855739692</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>176.9630418817871</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>164.5297041428355</v>
+        <v>255.0194505446369</v>
       </c>
       <c r="E35" t="n">
-        <v>198.2364565622444</v>
+        <v>198.2364565622443</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>229.9567941406217</v>
       </c>
       <c r="G35" t="n">
-        <v>416.8475686257756</v>
+        <v>243.6051131263838</v>
       </c>
       <c r="H35" t="n">
         <v>326.6351219435509</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.83924570627394</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>182.1560982319567</v>
@@ -25250,10 +25250,10 @@
         <v>147.6795372579688</v>
       </c>
       <c r="H36" t="n">
-        <v>115.4492175196299</v>
+        <v>115.4492175196298</v>
       </c>
       <c r="I36" t="n">
-        <v>70.69333292835037</v>
+        <v>70.69333292835036</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>68.59220640745254</v>
+        <v>68.59220640745251</v>
       </c>
       <c r="S36" t="n">
-        <v>171.8076349053263</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>210.6779553067679</v>
@@ -25292,16 +25292,16 @@
         <v>237.1579992852664</v>
       </c>
       <c r="V36" t="n">
-        <v>67.40646541601049</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>93.46212807761984</v>
+        <v>112.6778081790819</v>
       </c>
       <c r="X36" t="n">
-        <v>64.72095963560642</v>
+        <v>44.07045894007879</v>
       </c>
       <c r="Y36" t="n">
-        <v>50.14183063463386</v>
+        <v>50.14183063463381</v>
       </c>
     </row>
     <row r="37">
@@ -25317,13 +25317,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.807858350633</v>
@@ -25335,7 +25335,7 @@
         <v>138.000531384999</v>
       </c>
       <c r="J37" t="n">
-        <v>57.11040562298555</v>
+        <v>57.11040562298554</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>52.44739881532165</v>
       </c>
       <c r="R37" t="n">
         <v>163.2811849059516</v>
@@ -25371,16 +25371,16 @@
         <v>288.6078524280282</v>
       </c>
       <c r="V37" t="n">
-        <v>143.7689475615538</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>117.0682515899436</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
-        <v>48.67699990885077</v>
+        <v>178.9990659397903</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>43.89881731477661</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>200.8447848784415</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -25402,7 +25402,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>229.9567941406217</v>
       </c>
       <c r="G38" t="n">
         <v>416.8475686257756</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.83924570627394</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>182.1560982319567</v>
@@ -25450,16 +25450,16 @@
         <v>249.9912931456999</v>
       </c>
       <c r="V38" t="n">
-        <v>147.6373281097603</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>164.6540083263751</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>186.5402587953144</v>
+        <v>277.0300051971158</v>
       </c>
       <c r="Y38" t="n">
-        <v>229.6936126145857</v>
+        <v>209.0431119190581</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.508038898273981</v>
+        <v>3.508038898273924</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -25481,16 +25481,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>6.231484316064041</v>
       </c>
       <c r="G39" t="n">
         <v>147.6795372579688</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>115.4492175196298</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>70.69333292835036</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>68.59220640745254</v>
+        <v>68.59220640745251</v>
       </c>
       <c r="S39" t="n">
         <v>171.8076349053263</v>
@@ -25529,16 +25529,16 @@
         <v>237.1579992852664</v>
       </c>
       <c r="V39" t="n">
-        <v>67.40646541601049</v>
+        <v>67.40646541601043</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>93.46212807761978</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>83.69242627874988</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.374465165576339</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25572,7 +25572,7 @@
         <v>138.000531384999</v>
       </c>
       <c r="J40" t="n">
-        <v>57.11040562298555</v>
+        <v>57.11040562298554</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.44739881532166</v>
+        <v>52.44739881532165</v>
       </c>
       <c r="R40" t="n">
         <v>163.2811849059516</v>
@@ -25605,19 +25605,19 @@
         <v>219.9463694415582</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6078524280282</v>
+        <v>115.3653969286364</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>91.32154874623211</v>
       </c>
       <c r="W40" t="n">
-        <v>290.3107070893353</v>
+        <v>117.0682515899435</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>56.56853184853117</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>222.3650203075494</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>198.4832773108949</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.83924570627394</v>
+        <v>69.83924570627391</v>
       </c>
       <c r="S41" t="n">
-        <v>48.51916679405076</v>
+        <v>30.43387816167274</v>
       </c>
       <c r="T41" t="n">
-        <v>62.02979084487421</v>
+        <v>62.02979084487407</v>
       </c>
       <c r="U41" t="n">
-        <v>249.9912931456999</v>
+        <v>98.26907307541592</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25693,7 +25693,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>226.1457828568001</v>
       </c>
       <c r="Y41" t="n">
         <v>382.2855674184499</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>43.11356295975978</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>35.79593145408202</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -25724,10 +25724,10 @@
         <v>147.6795372579688</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4492175196299</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>70.69333292835037</v>
+        <v>52.50561901007413</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>68.59220640745254</v>
+        <v>68.59220640745251</v>
       </c>
       <c r="S42" t="n">
         <v>171.8076349053263</v>
       </c>
       <c r="T42" t="n">
-        <v>210.6779553067679</v>
+        <v>58.95573523648392</v>
       </c>
       <c r="U42" t="n">
         <v>237.1579992852664</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>88.92670084511823</v>
       </c>
       <c r="W42" t="n">
-        <v>114.9823635067277</v>
+        <v>114.9823635067276</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>71.66206606374172</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25797,19 +25797,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>16.08563828034914</v>
+        <v>16.08563828034903</v>
       </c>
       <c r="H43" t="n">
-        <v>6.163337476782687</v>
+        <v>157.8855575470666</v>
       </c>
       <c r="I43" t="n">
-        <v>80.09947630701221</v>
+        <v>138.000531384999</v>
       </c>
       <c r="J43" t="n">
-        <v>57.11040562298555</v>
+        <v>57.11040562298554</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.44739881532166</v>
+        <v>52.44739881532165</v>
       </c>
       <c r="R43" t="n">
         <v>163.2811849059516</v>
@@ -25842,7 +25842,7 @@
         <v>219.9463694415582</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6078524280282</v>
+        <v>136.8856323577442</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25851,10 +25851,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>70.19723533795852</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>172.0355555880189</v>
       </c>
     </row>
     <row r="44">
@@ -25876,16 +25876,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>251.4770295697295</v>
       </c>
       <c r="G44" t="n">
-        <v>265.1253485554918</v>
+        <v>265.1253485554917</v>
       </c>
       <c r="H44" t="n">
-        <v>174.912901873267</v>
+        <v>326.6351219435509</v>
       </c>
       <c r="I44" t="n">
-        <v>12.5447754478993</v>
+        <v>164.2669955181832</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.83924570627394</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>182.1560982319567</v>
@@ -25924,16 +25924,16 @@
         <v>249.9912931456999</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>257.0820978775198</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>186.1742437554829</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>248.6486359805439</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.02827432738184</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -25958,13 +25958,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.6795372579688</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>115.4492175196298</v>
       </c>
       <c r="I45" t="n">
-        <v>70.69333292835037</v>
+        <v>70.69333292835036</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>68.59220640745254</v>
+        <v>68.59220640745251</v>
       </c>
       <c r="S45" t="n">
         <v>171.8076349053263</v>
       </c>
       <c r="T45" t="n">
-        <v>210.6779553067679</v>
+        <v>58.95573523648392</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1579992852664</v>
+        <v>85.43577921498238</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>107.0119894774962</v>
       </c>
       <c r="W45" t="n">
-        <v>114.9823635067277</v>
+        <v>114.9823635067276</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>201.1538894034344</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26046,7 +26046,7 @@
         <v>138.000531384999</v>
       </c>
       <c r="J46" t="n">
-        <v>57.11040562298555</v>
+        <v>57.11040562298554</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.44739881532166</v>
+        <v>52.44739881532165</v>
       </c>
       <c r="R46" t="n">
         <v>163.2811849059516</v>
@@ -26079,19 +26079,19 @@
         <v>219.9463694415582</v>
       </c>
       <c r="U46" t="n">
-        <v>136.8856323577443</v>
+        <v>243.5021352018787</v>
       </c>
       <c r="V46" t="n">
-        <v>93.38679511416601</v>
+        <v>93.38679511416589</v>
       </c>
       <c r="W46" t="n">
-        <v>138.5884870190514</v>
+        <v>138.5884870190513</v>
       </c>
       <c r="X46" t="n">
-        <v>176.8137381820929</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.1412728141684</v>
+        <v>65.41905274388441</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>418192.9505577541</v>
+        <v>418192.9505577543</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>418192.9505577543</v>
+        <v>418192.9505577541</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>404611.8304651075</v>
+        <v>404611.8304651074</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>639400.6965029334</v>
       </c>
       <c r="C2" t="n">
-        <v>639400.6965029332</v>
+        <v>639400.6965029333</v>
       </c>
       <c r="D2" t="n">
-        <v>639400.6965029334</v>
+        <v>639400.6965029333</v>
       </c>
       <c r="E2" t="n">
-        <v>278289.8529523797</v>
+        <v>278289.8529523798</v>
       </c>
       <c r="F2" t="n">
         <v>278289.8529523798</v>
@@ -26334,10 +26334,10 @@
         <v>285676.8192402124</v>
       </c>
       <c r="I2" t="n">
+        <v>285719.6032796148</v>
+      </c>
+      <c r="J2" t="n">
         <v>285719.6032796147</v>
-      </c>
-      <c r="J2" t="n">
-        <v>285719.6032796148</v>
       </c>
       <c r="K2" t="n">
         <v>285719.6032796148</v>
@@ -26346,13 +26346,13 @@
         <v>285719.6032796148</v>
       </c>
       <c r="M2" t="n">
-        <v>285676.8192402124</v>
+        <v>285676.8192402125</v>
       </c>
       <c r="N2" t="n">
         <v>285676.8192402124</v>
       </c>
       <c r="O2" t="n">
-        <v>278289.8529523797</v>
+        <v>278289.8529523798</v>
       </c>
       <c r="P2" t="n">
         <v>278289.8529523797</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5898.373727587008</v>
+        <v>5898.373727587001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>33.14479383270846</v>
+        <v>33.14479383272949</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37778.72296861288</v>
+        <v>37778.72296861294</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>11295.86991918139</v>
       </c>
       <c r="F4" t="n">
-        <v>11295.86991918138</v>
+        <v>11295.86991918139</v>
       </c>
       <c r="G4" t="n">
-        <v>14363.73729466051</v>
+        <v>14363.7372946605</v>
       </c>
       <c r="H4" t="n">
-        <v>14363.73729466051</v>
+        <v>14363.7372946605</v>
       </c>
       <c r="I4" t="n">
+        <v>14388.54424784878</v>
+      </c>
+      <c r="J4" t="n">
         <v>14388.54424784877</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14388.54424784878</v>
       </c>
       <c r="K4" t="n">
         <v>14388.54424784877</v>
@@ -26450,10 +26450,10 @@
         <v>14388.54424784877</v>
       </c>
       <c r="M4" t="n">
-        <v>14363.73729466051</v>
+        <v>14363.7372946605</v>
       </c>
       <c r="N4" t="n">
-        <v>14363.73729466051</v>
+        <v>14363.7372946605</v>
       </c>
       <c r="O4" t="n">
         <v>11295.86991918139</v>
@@ -26481,13 +26481,13 @@
         <v>22224.79682090414</v>
       </c>
       <c r="F5" t="n">
-        <v>22224.79682090415</v>
+        <v>22224.79682090414</v>
       </c>
       <c r="G5" t="n">
-        <v>23533.2271349939</v>
+        <v>23533.22713499389</v>
       </c>
       <c r="H5" t="n">
-        <v>23533.2271349939</v>
+        <v>23533.22713499389</v>
       </c>
       <c r="I5" t="n">
         <v>23540.80533853942</v>
@@ -26508,10 +26508,10 @@
         <v>23533.22713499389</v>
       </c>
       <c r="O5" t="n">
-        <v>22224.79682090413</v>
+        <v>22224.79682090414</v>
       </c>
       <c r="P5" t="n">
-        <v>22224.79682090413</v>
+        <v>22224.79682090414</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127942.4329726581</v>
+        <v>127897.7691306061</v>
       </c>
       <c r="C6" t="n">
-        <v>127942.4329726578</v>
+        <v>127897.769130606</v>
       </c>
       <c r="D6" t="n">
-        <v>127942.4329726581</v>
+        <v>127897.769130606</v>
       </c>
       <c r="E6" t="n">
-        <v>-279628.4264366384</v>
+        <v>-292125.1883321576</v>
       </c>
       <c r="F6" t="n">
-        <v>244769.1862122943</v>
+        <v>232272.424316775</v>
       </c>
       <c r="G6" t="n">
-        <v>241881.481082971</v>
+        <v>229639.4421628943</v>
       </c>
       <c r="H6" t="n">
-        <v>247779.854810558</v>
+        <v>235537.8158904813</v>
       </c>
       <c r="I6" t="n">
-        <v>247757.1088993938</v>
+        <v>235516.5452910206</v>
       </c>
       <c r="J6" t="n">
-        <v>247790.2536932266</v>
+        <v>235549.6900848533</v>
       </c>
       <c r="K6" t="n">
-        <v>247790.2536932266</v>
+        <v>235549.6900848533</v>
       </c>
       <c r="L6" t="n">
-        <v>247790.2536932266</v>
+        <v>235549.6900848534</v>
       </c>
       <c r="M6" t="n">
-        <v>210001.1318419451</v>
+        <v>197759.0929218684</v>
       </c>
       <c r="N6" t="n">
-        <v>247779.854810558</v>
+        <v>235537.8158904813</v>
       </c>
       <c r="O6" t="n">
-        <v>244769.1862122942</v>
+        <v>232272.424316775</v>
       </c>
       <c r="P6" t="n">
-        <v>244769.1862122942</v>
+        <v>232272.4243167749</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>596.3342128729757</v>
       </c>
       <c r="F3" t="n">
-        <v>596.3342128729759</v>
+        <v>596.3342128729757</v>
       </c>
       <c r="G3" t="n">
         <v>596.3342128729757</v>
@@ -26770,16 +26770,16 @@
         <v>596.3342128729757</v>
       </c>
       <c r="M3" t="n">
-        <v>596.3342128729756</v>
+        <v>596.3342128729757</v>
       </c>
       <c r="N3" t="n">
-        <v>596.3342128729756</v>
+        <v>596.3342128729757</v>
       </c>
       <c r="O3" t="n">
-        <v>596.3342128729756</v>
+        <v>596.3342128729757</v>
       </c>
       <c r="P3" t="n">
-        <v>596.3342128729756</v>
+        <v>596.3342128729757</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>151.7222200702841</v>
+        <v>151.722220070284</v>
       </c>
       <c r="F4" t="n">
-        <v>151.7222200702841</v>
+        <v>151.722220070284</v>
       </c>
       <c r="G4" t="n">
-        <v>173.2424554993919</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="H4" t="n">
-        <v>173.2424554993919</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="I4" t="n">
         <v>173.3670970050748</v>
@@ -26828,10 +26828,10 @@
         <v>173.2424554993918</v>
       </c>
       <c r="O4" t="n">
-        <v>151.7222200702839</v>
+        <v>151.722220070284</v>
       </c>
       <c r="P4" t="n">
-        <v>151.7222200702839</v>
+        <v>151.722220070284</v>
       </c>
     </row>
   </sheetData>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>151.7222200702841</v>
+        <v>151.722220070284</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>21.52023542910779</v>
+        <v>21.52023542910776</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1246415056829226</v>
+        <v>0.1246415056830017</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>151.5975785646012</v>
+        <v>151.5975785646014</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>151.7222200702841</v>
+        <v>151.722220070284</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>21.52023542910779</v>
+        <v>21.52023542910776</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>278.5049547950629</v>
       </c>
       <c r="M12" t="n">
-        <v>261.3109441902308</v>
+        <v>325.0021460157718</v>
       </c>
       <c r="N12" t="n">
-        <v>311.9591088119508</v>
+        <v>311.9591088119506</v>
       </c>
       <c r="O12" t="n">
-        <v>305.1824721294369</v>
+        <v>241.4912703038955</v>
       </c>
       <c r="P12" t="n">
         <v>244.9358392458832</v>
@@ -31995,40 +31995,40 @@
         <v>24.55158897521753</v>
       </c>
       <c r="I14" t="n">
-        <v>92.42281303230314</v>
+        <v>92.42281303230313</v>
       </c>
       <c r="J14" t="n">
         <v>203.4698327631266</v>
       </c>
       <c r="K14" t="n">
-        <v>304.948535198958</v>
+        <v>304.9485351989579</v>
       </c>
       <c r="L14" t="n">
         <v>378.3156233083503</v>
       </c>
       <c r="M14" t="n">
-        <v>420.949024547264</v>
+        <v>420.9490245472639</v>
       </c>
       <c r="N14" t="n">
-        <v>427.7604198530946</v>
+        <v>427.7604198530944</v>
       </c>
       <c r="O14" t="n">
-        <v>403.9220346098558</v>
+        <v>403.9220346098556</v>
       </c>
       <c r="P14" t="n">
-        <v>344.7381114729649</v>
+        <v>344.7381114729648</v>
       </c>
       <c r="Q14" t="n">
         <v>258.8839647452726</v>
       </c>
       <c r="R14" t="n">
-        <v>150.5908703492747</v>
+        <v>150.5908703492746</v>
       </c>
       <c r="S14" t="n">
-        <v>54.62900854610228</v>
+        <v>54.62900854610226</v>
       </c>
       <c r="T14" t="n">
-        <v>10.49428348482996</v>
+        <v>10.49428348482995</v>
       </c>
       <c r="U14" t="n">
         <v>0.1917858775068865</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.282681137123005</v>
+        <v>1.282681137123004</v>
       </c>
       <c r="H15" t="n">
-        <v>12.38799940326692</v>
+        <v>12.38799940326691</v>
       </c>
       <c r="I15" t="n">
-        <v>44.16248651936662</v>
+        <v>44.16248651936661</v>
       </c>
       <c r="J15" t="n">
         <v>121.1852384858186</v>
       </c>
       <c r="K15" t="n">
-        <v>168.166555548718</v>
+        <v>207.1248746730599</v>
       </c>
       <c r="L15" t="n">
-        <v>253.7720720938638</v>
+        <v>278.5049547950629</v>
       </c>
       <c r="M15" t="n">
-        <v>325.0021460157718</v>
+        <v>261.3109441902304</v>
       </c>
       <c r="N15" t="n">
-        <v>311.9591088119507</v>
+        <v>311.9591088119506</v>
       </c>
       <c r="O15" t="n">
-        <v>305.182472129437</v>
+        <v>305.1824721294369</v>
       </c>
       <c r="P15" t="n">
-        <v>244.9358392458833</v>
+        <v>244.9358392458832</v>
       </c>
       <c r="Q15" t="n">
         <v>163.7331219948593</v>
       </c>
       <c r="R15" t="n">
-        <v>79.63874639084764</v>
+        <v>79.63874639084763</v>
       </c>
       <c r="S15" t="n">
-        <v>23.82523954261369</v>
+        <v>23.82523954261368</v>
       </c>
       <c r="T15" t="n">
         <v>5.170105109719477</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08438691691598718</v>
+        <v>0.08438691691598717</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,13 +32150,13 @@
         <v>1.075356777311923</v>
       </c>
       <c r="H16" t="n">
-        <v>9.56089934737329</v>
+        <v>9.560899347373288</v>
       </c>
       <c r="I16" t="n">
         <v>32.3389110849804</v>
       </c>
       <c r="J16" t="n">
-        <v>76.027724155953</v>
+        <v>76.02772415595298</v>
       </c>
       <c r="K16" t="n">
         <v>124.9369055822398</v>
@@ -32177,19 +32177,19 @@
         <v>130.0595142305257</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.04646614381934</v>
+        <v>90.04646614381933</v>
       </c>
       <c r="R16" t="n">
-        <v>48.35195109622521</v>
+        <v>48.35195109622519</v>
       </c>
       <c r="S16" t="n">
         <v>18.74053583733597</v>
       </c>
       <c r="T16" t="n">
-        <v>4.594706230332763</v>
+        <v>4.594706230332762</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05865582421701408</v>
+        <v>0.05865582421701407</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,7 +32326,7 @@
         <v>325.0021460157718</v>
       </c>
       <c r="N18" t="n">
-        <v>333.4793442410586</v>
+        <v>333.4793442410585</v>
       </c>
       <c r="O18" t="n">
         <v>305.1824721294369</v>
@@ -32563,7 +32563,7 @@
         <v>325.0021460157718</v>
       </c>
       <c r="N21" t="n">
-        <v>333.4793442410586</v>
+        <v>333.4793442410585</v>
       </c>
       <c r="O21" t="n">
         <v>305.1824721294369</v>
@@ -33648,25 +33648,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.397323468836081</v>
+        <v>2.397323468836082</v>
       </c>
       <c r="H35" t="n">
-        <v>24.55158897521752</v>
+        <v>24.55158897521753</v>
       </c>
       <c r="I35" t="n">
-        <v>92.42281303230311</v>
+        <v>92.42281303230313</v>
       </c>
       <c r="J35" t="n">
-        <v>203.4698327631265</v>
+        <v>203.4698327631266</v>
       </c>
       <c r="K35" t="n">
         <v>304.9485351989579</v>
       </c>
       <c r="L35" t="n">
-        <v>378.3156233083502</v>
+        <v>378.3156233083503</v>
       </c>
       <c r="M35" t="n">
-        <v>420.9490245472638</v>
+        <v>420.9490245472639</v>
       </c>
       <c r="N35" t="n">
         <v>427.7604198530944</v>
@@ -33678,7 +33678,7 @@
         <v>344.7381114729648</v>
       </c>
       <c r="Q35" t="n">
-        <v>258.8839647452725</v>
+        <v>258.8839647452726</v>
       </c>
       <c r="R35" t="n">
         <v>150.5908703492746</v>
@@ -33690,7 +33690,7 @@
         <v>10.49428348482995</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1917858775068864</v>
+        <v>0.1917858775068865</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,22 +33733,22 @@
         <v>12.38799940326691</v>
       </c>
       <c r="I36" t="n">
-        <v>44.1624865193666</v>
+        <v>44.16248651936661</v>
       </c>
       <c r="J36" t="n">
         <v>121.1852384858186</v>
       </c>
       <c r="K36" t="n">
-        <v>207.1248746730598</v>
+        <v>207.1248746730599</v>
       </c>
       <c r="L36" t="n">
         <v>278.5049547950629</v>
       </c>
       <c r="M36" t="n">
-        <v>325.0021460157717</v>
+        <v>325.0021460157718</v>
       </c>
       <c r="N36" t="n">
-        <v>333.4793442410586</v>
+        <v>333.4793442410585</v>
       </c>
       <c r="O36" t="n">
         <v>305.1824721294369</v>
@@ -33760,16 +33760,16 @@
         <v>163.7331219948593</v>
       </c>
       <c r="R36" t="n">
-        <v>79.6387463908476</v>
+        <v>79.63874639084763</v>
       </c>
       <c r="S36" t="n">
         <v>23.82523954261368</v>
       </c>
       <c r="T36" t="n">
-        <v>5.170105109719476</v>
+        <v>5.170105109719477</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08438691691598715</v>
+        <v>0.08438691691598717</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,13 +33809,13 @@
         <v>1.075356777311923</v>
       </c>
       <c r="H37" t="n">
-        <v>9.560899347373287</v>
+        <v>9.560899347373288</v>
       </c>
       <c r="I37" t="n">
-        <v>32.33891108498039</v>
+        <v>32.3389110849804</v>
       </c>
       <c r="J37" t="n">
-        <v>76.02772415595297</v>
+        <v>76.02772415595298</v>
       </c>
       <c r="K37" t="n">
         <v>124.9369055822398</v>
@@ -33824,7 +33824,7 @@
         <v>159.8762248741745</v>
       </c>
       <c r="M37" t="n">
-        <v>168.5670628289953</v>
+        <v>168.5670628289954</v>
       </c>
       <c r="N37" t="n">
         <v>164.5589148408329</v>
@@ -33833,22 +33833,22 @@
         <v>151.996792487689</v>
       </c>
       <c r="P37" t="n">
-        <v>130.0595142305256</v>
+        <v>130.0595142305257</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.04646614381932</v>
+        <v>90.04646614381933</v>
       </c>
       <c r="R37" t="n">
         <v>48.35195109622519</v>
       </c>
       <c r="S37" t="n">
-        <v>18.74053583733596</v>
+        <v>18.74053583733597</v>
       </c>
       <c r="T37" t="n">
-        <v>4.594706230332761</v>
+        <v>4.594706230332762</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05865582421701405</v>
+        <v>0.05865582421701407</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,25 +33885,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.397323468836081</v>
+        <v>2.397323468836082</v>
       </c>
       <c r="H38" t="n">
-        <v>24.55158897521752</v>
+        <v>24.55158897521753</v>
       </c>
       <c r="I38" t="n">
-        <v>92.42281303230311</v>
+        <v>92.42281303230313</v>
       </c>
       <c r="J38" t="n">
-        <v>203.4698327631265</v>
+        <v>203.4698327631266</v>
       </c>
       <c r="K38" t="n">
         <v>304.9485351989579</v>
       </c>
       <c r="L38" t="n">
-        <v>378.3156233083502</v>
+        <v>378.3156233083503</v>
       </c>
       <c r="M38" t="n">
-        <v>420.9490245472638</v>
+        <v>420.9490245472639</v>
       </c>
       <c r="N38" t="n">
         <v>427.7604198530944</v>
@@ -33915,7 +33915,7 @@
         <v>344.7381114729648</v>
       </c>
       <c r="Q38" t="n">
-        <v>258.8839647452725</v>
+        <v>258.8839647452726</v>
       </c>
       <c r="R38" t="n">
         <v>150.5908703492746</v>
@@ -33927,7 +33927,7 @@
         <v>10.49428348482995</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1917858775068864</v>
+        <v>0.1917858775068865</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,22 +33970,22 @@
         <v>12.38799940326691</v>
       </c>
       <c r="I39" t="n">
-        <v>44.1624865193666</v>
+        <v>44.16248651936661</v>
       </c>
       <c r="J39" t="n">
         <v>121.1852384858186</v>
       </c>
       <c r="K39" t="n">
-        <v>207.1248746730598</v>
+        <v>207.1248746730599</v>
       </c>
       <c r="L39" t="n">
         <v>278.5049547950629</v>
       </c>
       <c r="M39" t="n">
-        <v>325.0021460157717</v>
+        <v>325.0021460157718</v>
       </c>
       <c r="N39" t="n">
-        <v>333.4793442410584</v>
+        <v>333.4793442410585</v>
       </c>
       <c r="O39" t="n">
         <v>305.1824721294369</v>
@@ -33997,16 +33997,16 @@
         <v>163.7331219948593</v>
       </c>
       <c r="R39" t="n">
-        <v>79.6387463908476</v>
+        <v>79.63874639084763</v>
       </c>
       <c r="S39" t="n">
         <v>23.82523954261368</v>
       </c>
       <c r="T39" t="n">
-        <v>5.170105109719476</v>
+        <v>5.170105109719477</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08438691691598715</v>
+        <v>0.08438691691598717</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,13 +34046,13 @@
         <v>1.075356777311923</v>
       </c>
       <c r="H40" t="n">
-        <v>9.560899347373287</v>
+        <v>9.560899347373288</v>
       </c>
       <c r="I40" t="n">
-        <v>32.33891108498039</v>
+        <v>32.3389110849804</v>
       </c>
       <c r="J40" t="n">
-        <v>76.02772415595297</v>
+        <v>76.02772415595298</v>
       </c>
       <c r="K40" t="n">
         <v>124.9369055822398</v>
@@ -34061,7 +34061,7 @@
         <v>159.8762248741745</v>
       </c>
       <c r="M40" t="n">
-        <v>168.5670628289953</v>
+        <v>168.5670628289954</v>
       </c>
       <c r="N40" t="n">
         <v>164.5589148408329</v>
@@ -34070,22 +34070,22 @@
         <v>151.996792487689</v>
       </c>
       <c r="P40" t="n">
-        <v>130.0595142305256</v>
+        <v>130.0595142305257</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.04646614381932</v>
+        <v>90.04646614381933</v>
       </c>
       <c r="R40" t="n">
         <v>48.35195109622519</v>
       </c>
       <c r="S40" t="n">
-        <v>18.74053583733596</v>
+        <v>18.74053583733597</v>
       </c>
       <c r="T40" t="n">
-        <v>4.594706230332761</v>
+        <v>4.594706230332762</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05865582421701405</v>
+        <v>0.05865582421701407</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,25 +34122,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.397323468836081</v>
+        <v>2.397323468836082</v>
       </c>
       <c r="H41" t="n">
-        <v>24.55158897521752</v>
+        <v>24.55158897521753</v>
       </c>
       <c r="I41" t="n">
-        <v>92.42281303230311</v>
+        <v>92.42281303230313</v>
       </c>
       <c r="J41" t="n">
-        <v>203.4698327631265</v>
+        <v>203.4698327631266</v>
       </c>
       <c r="K41" t="n">
         <v>304.9485351989579</v>
       </c>
       <c r="L41" t="n">
-        <v>378.3156233083502</v>
+        <v>378.3156233083503</v>
       </c>
       <c r="M41" t="n">
-        <v>420.9490245472638</v>
+        <v>420.9490245472639</v>
       </c>
       <c r="N41" t="n">
         <v>427.7604198530944</v>
@@ -34152,7 +34152,7 @@
         <v>344.7381114729648</v>
       </c>
       <c r="Q41" t="n">
-        <v>258.8839647452725</v>
+        <v>258.8839647452726</v>
       </c>
       <c r="R41" t="n">
         <v>150.5908703492746</v>
@@ -34164,7 +34164,7 @@
         <v>10.49428348482995</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1917858775068864</v>
+        <v>0.1917858775068865</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,22 +34207,22 @@
         <v>12.38799940326691</v>
       </c>
       <c r="I42" t="n">
-        <v>44.1624865193666</v>
+        <v>44.16248651936661</v>
       </c>
       <c r="J42" t="n">
         <v>121.1852384858186</v>
       </c>
       <c r="K42" t="n">
-        <v>168.166555548718</v>
+        <v>207.1248746730599</v>
       </c>
       <c r="L42" t="n">
         <v>278.5049547950629</v>
       </c>
       <c r="M42" t="n">
-        <v>325.0021460157717</v>
+        <v>325.0021460157718</v>
       </c>
       <c r="N42" t="n">
-        <v>287.2262261107512</v>
+        <v>248.2679069864094</v>
       </c>
       <c r="O42" t="n">
         <v>305.1824721294369</v>
@@ -34234,16 +34234,16 @@
         <v>163.7331219948593</v>
       </c>
       <c r="R42" t="n">
-        <v>79.6387463908476</v>
+        <v>79.63874639084763</v>
       </c>
       <c r="S42" t="n">
         <v>23.82523954261368</v>
       </c>
       <c r="T42" t="n">
-        <v>5.170105109719476</v>
+        <v>5.170105109719477</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08438691691598715</v>
+        <v>0.08438691691598717</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,13 +34283,13 @@
         <v>1.075356777311923</v>
       </c>
       <c r="H43" t="n">
-        <v>9.560899347373287</v>
+        <v>9.560899347373288</v>
       </c>
       <c r="I43" t="n">
-        <v>32.33891108498039</v>
+        <v>32.3389110849804</v>
       </c>
       <c r="J43" t="n">
-        <v>76.02772415595297</v>
+        <v>76.02772415595298</v>
       </c>
       <c r="K43" t="n">
         <v>124.9369055822398</v>
@@ -34298,7 +34298,7 @@
         <v>159.8762248741745</v>
       </c>
       <c r="M43" t="n">
-        <v>168.5670628289953</v>
+        <v>168.5670628289954</v>
       </c>
       <c r="N43" t="n">
         <v>164.5589148408329</v>
@@ -34307,22 +34307,22 @@
         <v>151.996792487689</v>
       </c>
       <c r="P43" t="n">
-        <v>130.0595142305256</v>
+        <v>130.0595142305257</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.04646614381932</v>
+        <v>90.04646614381933</v>
       </c>
       <c r="R43" t="n">
         <v>48.35195109622519</v>
       </c>
       <c r="S43" t="n">
-        <v>18.74053583733596</v>
+        <v>18.74053583733597</v>
       </c>
       <c r="T43" t="n">
-        <v>4.594706230332761</v>
+        <v>4.594706230332762</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05865582421701405</v>
+        <v>0.05865582421701407</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,25 +34359,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.397323468836081</v>
+        <v>2.397323468836082</v>
       </c>
       <c r="H44" t="n">
-        <v>24.55158897521752</v>
+        <v>24.55158897521753</v>
       </c>
       <c r="I44" t="n">
-        <v>92.42281303230311</v>
+        <v>92.42281303230313</v>
       </c>
       <c r="J44" t="n">
-        <v>203.4698327631265</v>
+        <v>203.4698327631266</v>
       </c>
       <c r="K44" t="n">
         <v>304.9485351989579</v>
       </c>
       <c r="L44" t="n">
-        <v>378.3156233083502</v>
+        <v>378.3156233083503</v>
       </c>
       <c r="M44" t="n">
-        <v>420.9490245472638</v>
+        <v>420.9490245472639</v>
       </c>
       <c r="N44" t="n">
         <v>427.7604198530944</v>
@@ -34389,7 +34389,7 @@
         <v>344.7381114729648</v>
       </c>
       <c r="Q44" t="n">
-        <v>258.8839647452725</v>
+        <v>258.8839647452726</v>
       </c>
       <c r="R44" t="n">
         <v>150.5908703492746</v>
@@ -34401,7 +34401,7 @@
         <v>10.49428348482995</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1917858775068864</v>
+        <v>0.1917858775068865</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,43 +34444,43 @@
         <v>12.38799940326691</v>
       </c>
       <c r="I45" t="n">
-        <v>44.1624865193666</v>
+        <v>44.16248651936661</v>
       </c>
       <c r="J45" t="n">
         <v>121.1852384858186</v>
       </c>
       <c r="K45" t="n">
-        <v>168.166555548718</v>
+        <v>207.1248746730599</v>
       </c>
       <c r="L45" t="n">
-        <v>253.7720720938635</v>
+        <v>278.5049547950629</v>
       </c>
       <c r="M45" t="n">
-        <v>325.0021460157717</v>
+        <v>325.0021460157718</v>
       </c>
       <c r="N45" t="n">
-        <v>311.9591088119506</v>
+        <v>311.9591088119507</v>
       </c>
       <c r="O45" t="n">
         <v>305.1824721294369</v>
       </c>
       <c r="P45" t="n">
-        <v>244.9358392458832</v>
+        <v>181.244637420342</v>
       </c>
       <c r="Q45" t="n">
         <v>163.7331219948593</v>
       </c>
       <c r="R45" t="n">
-        <v>79.6387463908476</v>
+        <v>79.63874639084763</v>
       </c>
       <c r="S45" t="n">
         <v>23.82523954261368</v>
       </c>
       <c r="T45" t="n">
-        <v>5.170105109719476</v>
+        <v>5.170105109719477</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08438691691598715</v>
+        <v>0.08438691691598717</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,13 +34520,13 @@
         <v>1.075356777311923</v>
       </c>
       <c r="H46" t="n">
-        <v>9.560899347373287</v>
+        <v>9.560899347373288</v>
       </c>
       <c r="I46" t="n">
-        <v>32.33891108498039</v>
+        <v>32.3389110849804</v>
       </c>
       <c r="J46" t="n">
-        <v>76.02772415595297</v>
+        <v>76.02772415595298</v>
       </c>
       <c r="K46" t="n">
         <v>124.9369055822398</v>
@@ -34535,7 +34535,7 @@
         <v>159.8762248741745</v>
       </c>
       <c r="M46" t="n">
-        <v>168.5670628289953</v>
+        <v>168.5670628289954</v>
       </c>
       <c r="N46" t="n">
         <v>164.5589148408329</v>
@@ -34544,22 +34544,22 @@
         <v>151.996792487689</v>
       </c>
       <c r="P46" t="n">
-        <v>130.0595142305256</v>
+        <v>130.0595142305257</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.04646614381932</v>
+        <v>90.04646614381933</v>
       </c>
       <c r="R46" t="n">
         <v>48.35195109622519</v>
       </c>
       <c r="S46" t="n">
-        <v>18.74053583733596</v>
+        <v>18.74053583733597</v>
       </c>
       <c r="T46" t="n">
-        <v>4.594706230332761</v>
+        <v>4.594706230332762</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05865582421701405</v>
+        <v>0.05865582421701407</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>36.43891692408164</v>
+        <v>36.4389169240811</v>
       </c>
       <c r="L11" t="n">
         <v>90.68059704496585</v>
@@ -35497,13 +35497,13 @@
         <v>109.4686114636164</v>
       </c>
       <c r="M12" t="n">
-        <v>87.90742280536845</v>
+        <v>151.5986246309094</v>
       </c>
       <c r="N12" t="n">
-        <v>151.7222200702841</v>
+        <v>151.722220070284</v>
       </c>
       <c r="O12" t="n">
-        <v>131.2150539072147</v>
+        <v>67.52385208167335</v>
       </c>
       <c r="P12" t="n">
         <v>81.48706220040032</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>36.4389169240817</v>
+        <v>36.43891692408164</v>
       </c>
       <c r="L14" t="n">
-        <v>90.68059704496591</v>
+        <v>90.68059704496585</v>
       </c>
       <c r="M14" t="n">
-        <v>139.9266200099913</v>
+        <v>139.9266200099912</v>
       </c>
       <c r="N14" t="n">
-        <v>147.8764822652536</v>
+        <v>147.8764822652535</v>
       </c>
       <c r="O14" t="n">
-        <v>123.2022166753979</v>
+        <v>123.2022166753978</v>
       </c>
       <c r="P14" t="n">
-        <v>62.63385665153601</v>
+        <v>62.63385665153538</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>38.95831912434195</v>
       </c>
       <c r="L15" t="n">
-        <v>84.73572876241724</v>
+        <v>109.4686114636164</v>
       </c>
       <c r="M15" t="n">
-        <v>151.5986246309095</v>
+        <v>87.90742280536803</v>
       </c>
       <c r="N15" t="n">
-        <v>151.7222200702841</v>
+        <v>151.722220070284</v>
       </c>
       <c r="O15" t="n">
-        <v>131.2150539072148</v>
+        <v>131.2150539072147</v>
       </c>
       <c r="P15" t="n">
-        <v>81.48706220040037</v>
+        <v>81.48706220040032</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>36.71069120552151</v>
+        <v>36.71069120552148</v>
       </c>
       <c r="L16" t="n">
         <v>100.6005264099911</v>
@@ -35816,13 +35816,13 @@
         <v>114.751866682238</v>
       </c>
       <c r="N16" t="n">
-        <v>120.1204311084597</v>
+        <v>120.1204311084596</v>
       </c>
       <c r="O16" t="n">
-        <v>88.73081538153268</v>
+        <v>88.73081538153265</v>
       </c>
       <c r="P16" t="n">
-        <v>49.51560231806423</v>
+        <v>49.5156023180642</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>85.21143725464863</v>
       </c>
       <c r="K17" t="n">
-        <v>96.28438094459216</v>
+        <v>36.43891692408164</v>
       </c>
       <c r="L17" t="n">
         <v>90.68059704496585</v>
@@ -35895,7 +35895,7 @@
         <v>139.9266200099912</v>
       </c>
       <c r="N17" t="n">
-        <v>173.2424554993919</v>
+        <v>147.8764822652535</v>
       </c>
       <c r="O17" t="n">
         <v>123.2022166753978</v>
@@ -35974,7 +35974,7 @@
         <v>151.5986246309094</v>
       </c>
       <c r="N18" t="n">
-        <v>173.242455499392</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="O18" t="n">
         <v>131.2150539072147</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>85.21143725464886</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>36.43891692408164</v>
+        <v>121.6503541787303</v>
       </c>
       <c r="L20" t="n">
         <v>90.68059704496585</v>
@@ -36211,7 +36211,7 @@
         <v>151.5986246309094</v>
       </c>
       <c r="N21" t="n">
-        <v>173.242455499392</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="O21" t="n">
         <v>131.2150539072147</v>
@@ -36363,13 +36363,13 @@
         <v>36.43891692408164</v>
       </c>
       <c r="L23" t="n">
-        <v>117.4544725670099</v>
+        <v>173.3670970050748</v>
       </c>
       <c r="M23" t="n">
-        <v>173.3670970050748</v>
+        <v>142.9450873068311</v>
       </c>
       <c r="N23" t="n">
-        <v>173.3670970050748</v>
+        <v>147.8764822652535</v>
       </c>
       <c r="O23" t="n">
         <v>123.2022166753978</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.32720762095922</v>
+        <v>38.95831912434195</v>
       </c>
       <c r="L24" t="n">
         <v>109.4686114636164</v>
       </c>
       <c r="M24" t="n">
-        <v>151.5986246309094</v>
+        <v>151.9675131275267</v>
       </c>
       <c r="N24" t="n">
         <v>173.3670970050748</v>
@@ -36597,16 +36597,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>96.65326944120926</v>
+        <v>36.43891692408164</v>
       </c>
       <c r="L26" t="n">
-        <v>90.68059704496585</v>
+        <v>142.9450873068311</v>
       </c>
       <c r="M26" t="n">
-        <v>139.9266200099912</v>
+        <v>173.3670970050748</v>
       </c>
       <c r="N26" t="n">
-        <v>173.3670970050748</v>
+        <v>147.8764822652535</v>
       </c>
       <c r="O26" t="n">
         <v>123.2022166753978</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>85.70496725694889</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>36.43891692408164</v>
@@ -36846,10 +36846,10 @@
         <v>147.8764822652535</v>
       </c>
       <c r="O29" t="n">
-        <v>123.2022166753978</v>
+        <v>173.3670970050748</v>
       </c>
       <c r="P29" t="n">
-        <v>62.63385665153595</v>
+        <v>98.17394357880789</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.368888496617262</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>38.95831912434195</v>
       </c>
       <c r="L30" t="n">
-        <v>109.4686114636164</v>
+        <v>109.8374999602337</v>
       </c>
       <c r="M30" t="n">
         <v>151.5986246309094</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>36.43891692408164</v>
+        <v>122.1438841810305</v>
       </c>
       <c r="L32" t="n">
         <v>90.68059704496585</v>
@@ -37089,7 +37089,7 @@
         <v>62.63385665153595</v>
       </c>
       <c r="Q32" t="n">
-        <v>85.70496725694888</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.368888496617262</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>38.95831912434195</v>
@@ -37162,7 +37162,7 @@
         <v>173.3670970050748</v>
       </c>
       <c r="O33" t="n">
-        <v>131.2150539072147</v>
+        <v>131.583942403832</v>
       </c>
       <c r="P33" t="n">
         <v>81.48706220040032</v>
@@ -37308,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>36.43891692408158</v>
+        <v>121.6503541787303</v>
       </c>
       <c r="L35" t="n">
-        <v>90.68059704496579</v>
+        <v>90.68059704496585</v>
       </c>
       <c r="M35" t="n">
-        <v>139.9266200099911</v>
+        <v>139.9266200099912</v>
       </c>
       <c r="N35" t="n">
         <v>147.8764822652535</v>
@@ -37323,10 +37323,10 @@
         <v>123.2022166753978</v>
       </c>
       <c r="P35" t="n">
-        <v>62.63385665153589</v>
+        <v>62.63385665153595</v>
       </c>
       <c r="Q35" t="n">
-        <v>85.2114372546487</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.9583191243419</v>
+        <v>38.95831912434195</v>
       </c>
       <c r="L36" t="n">
         <v>109.4686114636164</v>
       </c>
       <c r="M36" t="n">
-        <v>151.5986246309093</v>
+        <v>151.5986246309094</v>
       </c>
       <c r="N36" t="n">
-        <v>173.2424554993919</v>
+        <v>173.2424554993918</v>
       </c>
       <c r="O36" t="n">
         <v>131.2150539072147</v>
       </c>
       <c r="P36" t="n">
-        <v>81.48706220040026</v>
+        <v>81.48706220040032</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>36.71069120552147</v>
+        <v>36.71069120552148</v>
       </c>
       <c r="L37" t="n">
-        <v>100.600526409991</v>
+        <v>100.6005264099911</v>
       </c>
       <c r="M37" t="n">
         <v>114.751866682238</v>
@@ -37478,10 +37478,10 @@
         <v>120.1204311084596</v>
       </c>
       <c r="O37" t="n">
-        <v>88.73081538153262</v>
+        <v>88.73081538153265</v>
       </c>
       <c r="P37" t="n">
-        <v>49.51560231806417</v>
+        <v>49.5156023180642</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>36.43891692408158</v>
+        <v>36.43891692408164</v>
       </c>
       <c r="L38" t="n">
-        <v>90.68059704496579</v>
+        <v>90.68059704496585</v>
       </c>
       <c r="M38" t="n">
-        <v>139.9266200099911</v>
+        <v>139.9266200099912</v>
       </c>
       <c r="N38" t="n">
         <v>147.8764822652535</v>
@@ -37560,10 +37560,10 @@
         <v>123.2022166753978</v>
       </c>
       <c r="P38" t="n">
-        <v>147.8452939061847</v>
+        <v>62.63385665153595</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>85.21143725464859</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.9583191243419</v>
+        <v>38.95831912434195</v>
       </c>
       <c r="L39" t="n">
         <v>109.4686114636164</v>
       </c>
       <c r="M39" t="n">
-        <v>151.5986246309093</v>
+        <v>151.5986246309094</v>
       </c>
       <c r="N39" t="n">
         <v>173.2424554993918</v>
@@ -37639,7 +37639,7 @@
         <v>131.2150539072147</v>
       </c>
       <c r="P39" t="n">
-        <v>81.48706220040026</v>
+        <v>81.48706220040032</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>36.71069120552147</v>
+        <v>36.71069120552148</v>
       </c>
       <c r="L40" t="n">
-        <v>100.600526409991</v>
+        <v>100.6005264099911</v>
       </c>
       <c r="M40" t="n">
         <v>114.751866682238</v>
@@ -37715,10 +37715,10 @@
         <v>120.1204311084596</v>
       </c>
       <c r="O40" t="n">
-        <v>88.73081538153262</v>
+        <v>88.73081538153265</v>
       </c>
       <c r="P40" t="n">
-        <v>49.51560231806417</v>
+        <v>49.5156023180642</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>36.43891692408158</v>
+        <v>36.43891692408164</v>
       </c>
       <c r="L41" t="n">
-        <v>90.68059704496579</v>
+        <v>90.68059704496585</v>
       </c>
       <c r="M41" t="n">
-        <v>139.9266200099911</v>
+        <v>139.9266200099912</v>
       </c>
       <c r="N41" t="n">
         <v>147.8764822652535</v>
@@ -37797,7 +37797,7 @@
         <v>123.2022166753978</v>
       </c>
       <c r="P41" t="n">
-        <v>62.63385665153589</v>
+        <v>62.63385665153595</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>38.95831912434195</v>
       </c>
       <c r="L42" t="n">
         <v>109.4686114636164</v>
       </c>
       <c r="M42" t="n">
-        <v>151.5986246309093</v>
+        <v>151.5986246309094</v>
       </c>
       <c r="N42" t="n">
-        <v>126.9893373690846</v>
+        <v>88.03101824474271</v>
       </c>
       <c r="O42" t="n">
         <v>131.2150539072147</v>
       </c>
       <c r="P42" t="n">
-        <v>81.48706220040026</v>
+        <v>81.48706220040032</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>36.71069120552147</v>
+        <v>36.71069120552148</v>
       </c>
       <c r="L43" t="n">
-        <v>100.600526409991</v>
+        <v>100.6005264099911</v>
       </c>
       <c r="M43" t="n">
         <v>114.751866682238</v>
@@ -37952,10 +37952,10 @@
         <v>120.1204311084596</v>
       </c>
       <c r="O43" t="n">
-        <v>88.73081538153262</v>
+        <v>88.73081538153265</v>
       </c>
       <c r="P43" t="n">
-        <v>49.51560231806417</v>
+        <v>49.5156023180642</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>36.43891692408158</v>
+        <v>36.43891692408164</v>
       </c>
       <c r="L44" t="n">
-        <v>90.68059704496579</v>
+        <v>90.68059704496585</v>
       </c>
       <c r="M44" t="n">
-        <v>139.9266200099911</v>
+        <v>139.9266200099912</v>
       </c>
       <c r="N44" t="n">
         <v>147.8764822652535</v>
@@ -38034,7 +38034,7 @@
         <v>123.2022166753978</v>
       </c>
       <c r="P44" t="n">
-        <v>62.63385665153589</v>
+        <v>62.63385665153595</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>38.95831912434195</v>
       </c>
       <c r="L45" t="n">
-        <v>84.735728762417</v>
+        <v>109.4686114636164</v>
       </c>
       <c r="M45" t="n">
-        <v>151.5986246309093</v>
+        <v>151.5986246309094</v>
       </c>
       <c r="N45" t="n">
-        <v>151.7222200702839</v>
+        <v>151.722220070284</v>
       </c>
       <c r="O45" t="n">
         <v>131.2150539072147</v>
       </c>
       <c r="P45" t="n">
-        <v>81.48706220040026</v>
+        <v>17.79586037485909</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>36.71069120552147</v>
+        <v>36.71069120552148</v>
       </c>
       <c r="L46" t="n">
-        <v>100.600526409991</v>
+        <v>100.6005264099911</v>
       </c>
       <c r="M46" t="n">
         <v>114.751866682238</v>
@@ -38189,10 +38189,10 @@
         <v>120.1204311084596</v>
       </c>
       <c r="O46" t="n">
-        <v>88.73081538153262</v>
+        <v>88.73081538153265</v>
       </c>
       <c r="P46" t="n">
-        <v>49.51560231806417</v>
+        <v>49.5156023180642</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
